--- a/ProofTugas2.xlsx
+++ b/ProofTugas2.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Lembar1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Epoch 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Epoch 2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="29">
   <si>
     <t xml:space="preserve">x1</t>
   </si>
@@ -116,11 +117,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,6 +144,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +222,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -293,13 +307,13 @@
   </sheetPr>
   <dimension ref="1:104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H102" activeCellId="0" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,7 +8515,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q82" s="0" t="n">
+      <c r="Q82" s="3" t="n">
         <f aca="false">AVERAGE(Q2:Q81)</f>
         <v>0.381927992400908</v>
       </c>
@@ -9592,7 +9606,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q104" s="0" t="n">
+      <c r="Q104" s="3" t="n">
         <f aca="false">AVERAGE(Q84:Q103)</f>
         <v>0.384121628229255</v>
       </c>
@@ -9606,4 +9620,9124 @@
     <oddFooter>&amp;CHalaman &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD104"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>-0.287549336675044</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-0.254424365014529</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>-0.453678068370616</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.733962193297543</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.764111701040762</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">A2*H2+B2*I2+C2*J2+D2*K2+L2</f>
+        <v>-2.08123205061217</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O2))</f>
+        <v>0.11093439381979</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">(P2-F2)^2</f>
+        <v>0.790437652092584</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">IF(P2&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">2*(P2-F2)*(1-P2)*P2*A2</f>
+        <v>-0.894404562229734</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">2*(P2-F2)*(1-P2)*P2*B2</f>
+        <v>-0.613807052510602</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <f aca="false">2*(P2-F2)*(1-P2)*P2*C2</f>
+        <v>-0.245522821004241</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <f aca="false">2*(P2-F2)*(1-P2)*P2*D2</f>
+        <v>-0.0350746887148915</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <f aca="false">2*(P2-F2)*(1-P2)*P2</f>
+        <v>-0.175373443574458</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <f aca="false">H2-T2*$M$2</f>
+        <v>-0.198108880452071</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <f aca="false">I2-U2*$M$2</f>
+        <v>-0.193043659763469</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <f aca="false">J2-V2*$M$2</f>
+        <v>-0.429125786270192</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <f aca="false">K2-W2*$M$2</f>
+        <v>0.737469662169032</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <f aca="false">L2-X2*$M$2</f>
+        <v>0.781649045398207</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">Z2</f>
+        <v>-0.198108880452071</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">AA2</f>
+        <v>-0.193043659763469</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">AB2</f>
+        <v>-0.429125786270192</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">AC2</f>
+        <v>0.737469662169032</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">AD2</f>
+        <v>0.781649045398207</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">A3*H3+B3*I3+C3*J3+D3*K3+L3</f>
+        <v>-1.22149761645181</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O3))</f>
+        <v>0.227673005285005</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">(P3-F3)^2</f>
+        <v>0.596488986765496</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">IF(P3&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">2*(P3-F3)*(1-P3)*P3*A3</f>
+        <v>-1.33088351431582</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">2*(P3-F3)*(1-P3)*P3*B3</f>
+        <v>-0.814826641417848</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">2*(P3-F3)*(1-P3)*P3*C3</f>
+        <v>-0.380252432661663</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <f aca="false">2*(P3-F3)*(1-P3)*P3*D3</f>
+        <v>-0.0543217760945232</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <f aca="false">2*(P3-F3)*(1-P3)*P3</f>
+        <v>-0.271608880472616</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <f aca="false">H3-T3*$M$2</f>
+        <v>-0.0650205290204886</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <f aca="false">I3-U3*$M$2</f>
+        <v>-0.111560995621684</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <f aca="false">J3-V3*$M$2</f>
+        <v>-0.391100543004026</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <f aca="false">K3-W3*$M$2</f>
+        <v>0.742901839778484</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <f aca="false">L3-X3*$M$2</f>
+        <v>0.808809933445469</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">Z3</f>
+        <v>-0.0650205290204886</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">AA3</f>
+        <v>-0.111560995621684</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">AB3</f>
+        <v>-0.391100543004026</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">AC3</f>
+        <v>0.742901839778484</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">AD3</f>
+        <v>0.808809933445469</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">A4*H4+B4*I4+C4*J4+D4*K4+L4</f>
+        <v>-0.213632076889753</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O4))</f>
+        <v>0.446794180569744</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">(P4-F4)^2</f>
+        <v>0.306036678651501</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">IF(P4&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">2*(P4-F4)*(1-P4)*P4*A4</f>
+        <v>-1.28531282638641</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">2*(P4-F4)*(1-P4)*P4*B4</f>
+        <v>-0.875106605199255</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">2*(P4-F4)*(1-P4)*P4*C4</f>
+        <v>-0.355512058362197</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">2*(P4-F4)*(1-P4)*P4*D4</f>
+        <v>-0.0546941628249534</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">2*(P4-F4)*(1-P4)*P4</f>
+        <v>-0.273470814124767</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">H4-T4*$M$2</f>
+        <v>0.0635107536181519</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <f aca="false">I4-U4*$M$2</f>
+        <v>-0.0240503351017587</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">J4-V4*$M$2</f>
+        <v>-0.355549337167806</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <f aca="false">K4-W4*$M$2</f>
+        <v>0.74837125606098</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <f aca="false">L4-X4*$M$2</f>
+        <v>0.836157014857946</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">Z4</f>
+        <v>0.0635107536181519</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">AA4</f>
+        <v>-0.0240503351017587</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">AB4</f>
+        <v>-0.355549337167806</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">AC4</f>
+        <v>0.74837125606098</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">AD4</f>
+        <v>0.836157014857946</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">A5*H5+B5*I5+C5*J5+D5*K5+L5</f>
+        <v>0.670100688146479</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O5))</f>
+        <v>0.661525704596778</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">(P5-F5)^2</f>
+        <v>0.114564848648707</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">IF(P5&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">2*(P5-F5)*(1-P5)*P5*A5</f>
+        <v>-0.697245848464106</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">2*(P5-F5)*(1-P5)*P5*B5</f>
+        <v>-0.469883071791028</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">2*(P5-F5)*(1-P5)*P5*C5</f>
+        <v>-0.227362776673078</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">2*(P5-F5)*(1-P5)*P5*D5</f>
+        <v>-0.0303150368897438</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <f aca="false">2*(P5-F5)*(1-P5)*P5</f>
+        <v>-0.151575184448719</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <f aca="false">H5-T5*$M$2</f>
+        <v>0.133235338464563</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <f aca="false">I5-U5*$M$2</f>
+        <v>0.0229379720773441</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">J5-V5*$M$2</f>
+        <v>-0.332813059500498</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <f aca="false">K5-W5*$M$2</f>
+        <v>0.751402759749954</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <f aca="false">L5-X5*$M$2</f>
+        <v>0.851314533302817</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">Z5</f>
+        <v>0.133235338464563</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">AA5</f>
+        <v>0.0229379720773441</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">AB5</f>
+        <v>-0.332813059500498</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">AC5</f>
+        <v>0.751402759749954</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">AD5</f>
+        <v>0.851314533302817</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">A6*H6+B6*I6+C6*J6+D6*K6+L6</f>
+        <v>1.28441019375336</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O6))</f>
+        <v>0.783199553788568</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">(P6-F6)^2</f>
+        <v>0.0470024334774761</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">IF(P6&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">2*(P6-F6)*(1-P6)*P6*A6</f>
+        <v>-0.368122849265361</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">2*(P6-F6)*(1-P6)*P6*B6</f>
+        <v>-0.26504845147106</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">2*(P6-F6)*(1-P6)*P6*C6</f>
+        <v>-0.103074397794301</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">2*(P6-F6)*(1-P6)*P6*D6</f>
+        <v>-0.0147249139706144</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">2*(P6-F6)*(1-P6)*P6</f>
+        <v>-0.0736245698530722</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <f aca="false">H6-T6*$M$2</f>
+        <v>0.170047623391099</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <f aca="false">I6-U6*$M$2</f>
+        <v>0.0494428172244501</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">J6-V6*$M$2</f>
+        <v>-0.322505619721068</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <f aca="false">K6-W6*$M$2</f>
+        <v>0.752875251147015</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <f aca="false">L6-X6*$M$2</f>
+        <v>0.858676990288125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">Z6</f>
+        <v>0.170047623391099</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">AA6</f>
+        <v>0.0494428172244501</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">AB6</f>
+        <v>-0.322505619721068</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">AC6</f>
+        <v>0.752875251147015</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">AD6</f>
+        <v>0.858676990288125</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">A7*H7+B7*I7+C7*J7+D7*K7+L7</f>
+        <v>1.7226516907084</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O7))</f>
+        <v>0.848470075639336</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">(P7-F7)^2</f>
+        <v>0.0229613179767486</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">IF(P7&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">2*(P7-F7)*(1-P7)*P7*A7</f>
+        <v>-0.210405504965516</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">2*(P7-F7)*(1-P7)*P7*B7</f>
+        <v>-0.151959531363983</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">2*(P7-F7)*(1-P7)*P7*C7</f>
+        <v>-0.0662387700817364</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">2*(P7-F7)*(1-P7)*P7*D7</f>
+        <v>-0.0155855929604086</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <f aca="false">2*(P7-F7)*(1-P7)*P7</f>
+        <v>-0.0389639824010214</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">H7-T7*$M$2</f>
+        <v>0.19108817388765</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <f aca="false">I7-U7*$M$2</f>
+        <v>0.0646387703608484</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">J7-V7*$M$2</f>
+        <v>-0.315881742712894</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <f aca="false">K7-W7*$M$2</f>
+        <v>0.754433810443056</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <f aca="false">L7-X7*$M$2</f>
+        <v>0.862573388528227</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">Z7</f>
+        <v>0.19108817388765</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">AA7</f>
+        <v>0.0646387703608484</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">AB7</f>
+        <v>-0.315881742712894</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">AC7</f>
+        <v>0.754433810443056</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">AD7</f>
+        <v>0.862573388528227</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">A8*H8+B8*I8+C8*J8+D8*K8+L8</f>
+        <v>1.74544651097317</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O8))</f>
+        <v>0.851377553017833</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">(P8-F8)^2</f>
+        <v>0.0220886317469671</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">IF(P8&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">2*(P8-F8)*(1-P8)*P8*A8</f>
+        <v>-0.173013040265453</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">2*(P8-F8)*(1-P8)*P8*B8</f>
+        <v>-0.127879203674465</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">2*(P8-F8)*(1-P8)*P8*C8</f>
+        <v>-0.0526561426894856</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">2*(P8-F8)*(1-P8)*P8*D8</f>
+        <v>-0.0112834591477469</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <f aca="false">2*(P8-F8)*(1-P8)*P8</f>
+        <v>-0.0376115304924897</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <f aca="false">H8-T8*$M$2</f>
+        <v>0.208389477914196</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <f aca="false">I8-U8*$M$2</f>
+        <v>0.0774266907282949</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">J8-V8*$M$2</f>
+        <v>-0.310616128443946</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <f aca="false">K8-W8*$M$2</f>
+        <v>0.755562156357831</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <f aca="false">L8-X8*$M$2</f>
+        <v>0.866334541577476</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">Z8</f>
+        <v>0.208389477914196</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">AA8</f>
+        <v>0.0774266907282949</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">AB8</f>
+        <v>-0.310616128443946</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">AC8</f>
+        <v>0.755562156357831</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">AD8</f>
+        <v>0.866334541577476</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">A9*H9+B9*I9+C9*J9+D9*K9+L9</f>
+        <v>1.8567209182303</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O9))</f>
+        <v>0.86491428635276</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">(P9-F9)^2</f>
+        <v>0.0182481500315841</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">IF(P9&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">2*(P9-F9)*(1-P9)*P9*A9</f>
+        <v>-0.157830856618256</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">2*(P9-F9)*(1-P9)*P9*B9</f>
+        <v>-0.107324982500414</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">2*(P9-F9)*(1-P9)*P9*C9</f>
+        <v>-0.0473492569854769</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">2*(P9-F9)*(1-P9)*P9*D9</f>
+        <v>-0.00631323426473026</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">2*(P9-F9)*(1-P9)*P9</f>
+        <v>-0.0315661713236513</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">H9-T9*$M$2</f>
+        <v>0.224172563576021</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <f aca="false">I9-U9*$M$2</f>
+        <v>0.0881591889783364</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">J9-V9*$M$2</f>
+        <v>-0.305881202745398</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <f aca="false">K9-W9*$M$2</f>
+        <v>0.756193479784304</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <f aca="false">L9-X9*$M$2</f>
+        <v>0.869491158709841</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">Z9</f>
+        <v>0.224172563576021</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">AA9</f>
+        <v>0.0881591889783364</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">AB9</f>
+        <v>-0.305881202745398</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">AC9</f>
+        <v>0.756193479784304</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">AD9</f>
+        <v>0.869491158709841</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">A10*H10+B10*I10+C10*J10+D10*K10+L10</f>
+        <v>1.83451709859481</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O10))</f>
+        <v>0.862298962976895</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">(P10-F10)^2</f>
+        <v>0.0189615755972387</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">IF(P10&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">2*(P10-F10)*(1-P10)*P10*A10</f>
+        <v>-0.143884813370381</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">2*(P10-F10)*(1-P10)*P10*B10</f>
+        <v>-0.0948331724486599</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">2*(P10-F10)*(1-P10)*P10*C10</f>
+        <v>-0.0457815315269393</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">2*(P10-F10)*(1-P10)*P10*D10</f>
+        <v>-0.00654021878956275</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <f aca="false">2*(P10-F10)*(1-P10)*P10</f>
+        <v>-0.0327010939478138</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <f aca="false">H10-T10*$M$2</f>
+        <v>0.238561044913059</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <f aca="false">I10-U10*$M$2</f>
+        <v>0.0976425062232024</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">J10-V10*$M$2</f>
+        <v>-0.301303049592704</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <f aca="false">K10-W10*$M$2</f>
+        <v>0.75684750166326</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <f aca="false">L10-X10*$M$2</f>
+        <v>0.872761268104622</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">Z10</f>
+        <v>0.238561044913059</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">AA10</f>
+        <v>0.0976425062232024</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">AB10</f>
+        <v>-0.301303049592704</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">AC10</f>
+        <v>0.75684750166326</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">AD10</f>
+        <v>0.872761268104622</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">A11*H11+B11*I11+C11*J11+D11*K11+L11</f>
+        <v>1.96813233324781</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O11))</f>
+        <v>0.877410365857429</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">(P11-F11)^2</f>
+        <v>0.0150282183992094</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">IF(P11&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">2*(P11-F11)*(1-P11)*P11*A11</f>
+        <v>-0.12922196311759</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">2*(P11-F11)*(1-P11)*P11*B11</f>
+        <v>-0.0817526705437813</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">2*(P11-F11)*(1-P11)*P11*C11</f>
+        <v>-0.0395577438115071</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">2*(P11-F11)*(1-P11)*P11*D11</f>
+        <v>-0.00263718292076714</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <f aca="false">2*(P11-F11)*(1-P11)*P11</f>
+        <v>-0.0263718292076714</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">H11-T11*$M$2</f>
+        <v>0.251483241224818</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">I11-U11*$M$2</f>
+        <v>0.10581777327758</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">J11-V11*$M$2</f>
+        <v>-0.297347275211553</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">K11-W11*$M$2</f>
+        <v>0.757111219955337</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <f aca="false">L11-X11*$M$2</f>
+        <v>0.875398451025389</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">Z11</f>
+        <v>0.251483241224818</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">AA11</f>
+        <v>0.10581777327758</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">AB11</f>
+        <v>-0.297347275211553</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">AC11</f>
+        <v>0.757111219955337</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">AD11</f>
+        <v>0.875398451025389</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">A12*H12+B12*I12+C12*J12+D12*K12+L12</f>
+        <v>2.33033504594019</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O12))</f>
+        <v>0.911358406914631</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">(P12-F12)^2</f>
+        <v>0.00785733202471206</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">IF(P12&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">2*(P12-F12)*(1-P12)*P12*A12</f>
+        <v>-0.0773371324437217</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">2*(P12-F12)*(1-P12)*P12*B12</f>
+        <v>-0.0529902574151427</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">2*(P12-F12)*(1-P12)*P12*C12</f>
+        <v>-0.0214825367899227</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <f aca="false">2*(P12-F12)*(1-P12)*P12*D12</f>
+        <v>-0.00286433823865636</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">2*(P12-F12)*(1-P12)*P12</f>
+        <v>-0.0143216911932818</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">H12-T12*$M$2</f>
+        <v>0.25921695446919</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">I12-U12*$M$2</f>
+        <v>0.111116799019095</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">J12-V12*$M$2</f>
+        <v>-0.295199021532561</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <f aca="false">K12-W12*$M$2</f>
+        <v>0.757397653779203</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <f aca="false">L12-X12*$M$2</f>
+        <v>0.876830620144717</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">Z12</f>
+        <v>0.25921695446919</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">AA12</f>
+        <v>0.111116799019095</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">AB12</f>
+        <v>-0.295199021532561</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">AC12</f>
+        <v>0.757397653779203</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">AD12</f>
+        <v>0.876830620144717</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">A13*H13+B13*I13+C13*J13+D13*K13+L13</f>
+        <v>2.1780302145655</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O13))</f>
+        <v>0.89825919534198</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">(P13-F13)^2</f>
+        <v>0.0103511913324613</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">IF(P13&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">2*(P13-F13)*(1-P13)*P13*A13</f>
+        <v>-0.0892613068524251</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">2*(P13-F13)*(1-P13)*P13*B13</f>
+        <v>-0.0632267590204677</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">2*(P13-F13)*(1-P13)*P13*C13</f>
+        <v>-0.0297537689508084</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">2*(P13-F13)*(1-P13)*P13*D13</f>
+        <v>-0.00371922111885104</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <f aca="false">2*(P13-F13)*(1-P13)*P13</f>
+        <v>-0.0185961055942552</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <f aca="false">H13-T13*$M$2</f>
+        <v>0.268143085154433</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">I13-U13*$M$2</f>
+        <v>0.117439474921142</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">J13-V13*$M$2</f>
+        <v>-0.29222364463748</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">K13-W13*$M$2</f>
+        <v>0.757769575891088</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <f aca="false">L13-X13*$M$2</f>
+        <v>0.878690230704143</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">Z13</f>
+        <v>0.268143085154433</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">AA13</f>
+        <v>0.117439474921142</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">AB13</f>
+        <v>-0.29222364463748</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">AC13</f>
+        <v>0.757769575891088</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">AD13</f>
+        <v>0.878690230704143</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">A14*H14+B14*I14+C14*J14+D14*K14+L14</f>
+        <v>2.18475931930548</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O14))</f>
+        <v>0.898872519643007</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">(P14-F14)^2</f>
+        <v>0.010226767283354</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">IF(P14&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">2*(P14-F14)*(1-P14)*P14*A14</f>
+        <v>-0.0882485767275941</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">2*(P14-F14)*(1-P14)*P14*B14</f>
+        <v>-0.0551553604547463</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">2*(P14-F14)*(1-P14)*P14*C14</f>
+        <v>-0.0257391682122149</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <f aca="false">2*(P14-F14)*(1-P14)*P14*D14</f>
+        <v>-0.00183851201515821</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <f aca="false">2*(P14-F14)*(1-P14)*P14</f>
+        <v>-0.0183851201515821</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <f aca="false">H14-T14*$M$2</f>
+        <v>0.276967942827192</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <f aca="false">I14-U14*$M$2</f>
+        <v>0.122955010966616</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <f aca="false">J14-V14*$M$2</f>
+        <v>-0.289649727816259</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <f aca="false">K14-W14*$M$2</f>
+        <v>0.757953427092603</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <f aca="false">L14-X14*$M$2</f>
+        <v>0.880528742719301</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">Z14</f>
+        <v>0.276967942827192</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">AA14</f>
+        <v>0.122955010966616</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">AB14</f>
+        <v>-0.289649727816259</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">AC14</f>
+        <v>0.757953427092603</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">AD14</f>
+        <v>0.880528742719301</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">A15*H15+B15*I15+C15*J15+D15*K15+L15</f>
+        <v>2.19753657188745</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O15))</f>
+        <v>0.900028076005559</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">(P15-F15)^2</f>
+        <v>0.00999438558715031</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">IF(P15&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">2*(P15-F15)*(1-P15)*P15*A15</f>
+        <v>-0.077358957625401</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">2*(P15-F15)*(1-P15)*P15*B15</f>
+        <v>-0.0539713657851635</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">2*(P15-F15)*(1-P15)*P15*C15</f>
+        <v>-0.0197895007878933</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <f aca="false">2*(P15-F15)*(1-P15)*P15*D15</f>
+        <v>-0.00179904552617212</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <f aca="false">2*(P15-F15)*(1-P15)*P15</f>
+        <v>-0.0179904552617212</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <f aca="false">H15-T15*$M$2</f>
+        <v>0.284703838589732</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <f aca="false">I15-U15*$M$2</f>
+        <v>0.128352147545133</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <f aca="false">J15-V15*$M$2</f>
+        <v>-0.28767077773747</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <f aca="false">K15-W15*$M$2</f>
+        <v>0.758133331645221</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <f aca="false">L15-X15*$M$2</f>
+        <v>0.882327788245473</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">Z15</f>
+        <v>0.284703838589732</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">AA15</f>
+        <v>0.128352147545133</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">AB15</f>
+        <v>-0.28767077773747</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">AC15</f>
+        <v>0.758133331645221</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">AD15</f>
+        <v>0.882327788245473</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">A16*H16+B16*I16+C16*J16+D16*K16+L16</f>
+        <v>2.85344037529053</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O16))</f>
+        <v>0.945496247938516</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">(P16-F16)^2</f>
+        <v>0.0029706589887797</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">IF(P16&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">2*(P16-F16)*(1-P16)*P16*A16</f>
+        <v>-0.032581464362434</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">2*(P16-F16)*(1-P16)*P16*B16</f>
+        <v>-0.0224699754223683</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">2*(P16-F16)*(1-P16)*P16*C16</f>
+        <v>-0.00674099262671049</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <f aca="false">2*(P16-F16)*(1-P16)*P16*D16</f>
+        <v>-0.00112349877111841</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <f aca="false">2*(P16-F16)*(1-P16)*P16</f>
+        <v>-0.00561749385559207</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <f aca="false">H16-T16*$M$2</f>
+        <v>0.287961985025976</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">I16-U16*$M$2</f>
+        <v>0.130599145087369</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <f aca="false">J16-V16*$M$2</f>
+        <v>-0.286996678474798</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <f aca="false">K16-W16*$M$2</f>
+        <v>0.758245681522333</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <f aca="false">L16-X16*$M$2</f>
+        <v>0.882889537631033</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">Z16</f>
+        <v>0.287961985025976</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">AA16</f>
+        <v>0.130599145087369</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">AB16</f>
+        <v>-0.286996678474798</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">AC16</f>
+        <v>0.758245681522333</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">AD16</f>
+        <v>0.882889537631033</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">A17*H17+B17*I17+C17*J17+D17*K17+L17</f>
+        <v>2.97171234556026</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O17))</f>
+        <v>0.951279699805979</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">(P17-F17)^2</f>
+        <v>0.00237366765099554</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">IF(P17&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">2*(P17-F17)*(1-P17)*P17*A17</f>
+        <v>-0.0257414490954515</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">2*(P17-F17)*(1-P17)*P17*B17</f>
+        <v>-0.0198705922842082</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">2*(P17-F17)*(1-P17)*P17*C17</f>
+        <v>-0.0067740655514346</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <f aca="false">2*(P17-F17)*(1-P17)*P17*D17</f>
+        <v>-0.00180641748038256</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <f aca="false">2*(P17-F17)*(1-P17)*P17</f>
+        <v>-0.0045160437009564</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <f aca="false">H17-T17*$M$2</f>
+        <v>0.290536129935521</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <f aca="false">I17-U17*$M$2</f>
+        <v>0.13258620431579</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <f aca="false">J17-V17*$M$2</f>
+        <v>-0.286319271919655</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <f aca="false">K17-W17*$M$2</f>
+        <v>0.758426323270371</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <f aca="false">L17-X17*$M$2</f>
+        <v>0.883341142001128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">Z17</f>
+        <v>0.290536129935521</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">AA17</f>
+        <v>0.13258620431579</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">AB17</f>
+        <v>-0.286319271919655</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">AC17</f>
+        <v>0.758426323270371</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">AD17</f>
+        <v>0.883341142001128</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">A18*H18+B18*I18+C18*J18+D18*K18+L18</f>
+        <v>2.90047791629712</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O18))</f>
+        <v>0.947870056973879</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">(P18-F18)^2</f>
+        <v>0.00271753095990662</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">IF(P18&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">2*(P18-F18)*(1-P18)*P18*A18</f>
+        <v>-0.0278193552385856</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">2*(P18-F18)*(1-P18)*P18*B18</f>
+        <v>-0.0200917565612007</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">2*(P18-F18)*(1-P18)*P18*C18</f>
+        <v>-0.00669725218706691</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <f aca="false">2*(P18-F18)*(1-P18)*P18*D18</f>
+        <v>-0.00206069298063597</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <f aca="false">2*(P18-F18)*(1-P18)*P18</f>
+        <v>-0.00515173245158993</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <f aca="false">H18-T18*$M$2</f>
+        <v>0.293318065459379</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <f aca="false">I18-U18*$M$2</f>
+        <v>0.13459537997191</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <f aca="false">J18-V18*$M$2</f>
+        <v>-0.285649546700948</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <f aca="false">K18-W18*$M$2</f>
+        <v>0.758632392568434</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <f aca="false">L18-X18*$M$2</f>
+        <v>0.883856315246287</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">Z18</f>
+        <v>0.293318065459379</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">AA18</f>
+        <v>0.13459537997191</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">AB18</f>
+        <v>-0.285649546700948</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">AC18</f>
+        <v>0.758632392568434</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">AD18</f>
+        <v>0.883856315246287</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">A19*H19+B19*I19+C19*J19+D19*K19+L19</f>
+        <v>2.67854263138001</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O19))</f>
+        <v>0.935748557561689</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">(P19-F19)^2</f>
+        <v>0.00412824785540357</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">IF(P19&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">2*(P19-F19)*(1-P19)*P19*A19</f>
+        <v>-0.0394026201547005</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">2*(P19-F19)*(1-P19)*P19*B19</f>
+        <v>-0.0270410138316572</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">2*(P19-F19)*(1-P19)*P19*C19</f>
+        <v>-0.0108164055326629</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <f aca="false">2*(P19-F19)*(1-P19)*P19*D19</f>
+        <v>-0.00231780118557062</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <f aca="false">2*(P19-F19)*(1-P19)*P19</f>
+        <v>-0.00772600395190205</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <f aca="false">H19-T19*$M$2</f>
+        <v>0.29725832747485</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">I19-U19*$M$2</f>
+        <v>0.137299481355076</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <f aca="false">J19-V19*$M$2</f>
+        <v>-0.284567906147682</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <f aca="false">K19-W19*$M$2</f>
+        <v>0.758864172686991</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <f aca="false">L19-X19*$M$2</f>
+        <v>0.884628915641478</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">Z19</f>
+        <v>0.29725832747485</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">AA19</f>
+        <v>0.137299481355076</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">AB19</f>
+        <v>-0.284567906147682</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">AC19</f>
+        <v>0.758864172686991</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">AD19</f>
+        <v>0.884628915641478</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">A20*H20+B20*I20+C20*J20+D20*K20+L20</f>
+        <v>2.84463322275245</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O20))</f>
+        <v>0.945040603326298</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">(P20-F20)^2</f>
+        <v>0.00302053528273737</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">IF(P20&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">2*(P20-F20)*(1-P20)*P20*A20</f>
+        <v>-0.032541624740018</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">2*(P20-F20)*(1-P20)*P20*B20</f>
+        <v>-0.0216944164933454</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">2*(P20-F20)*(1-P20)*P20*C20</f>
+        <v>-0.00970539685228609</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">2*(P20-F20)*(1-P20)*P20*D20</f>
+        <v>-0.0017127170915799</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <f aca="false">2*(P20-F20)*(1-P20)*P20</f>
+        <v>-0.00570905697193299</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <f aca="false">H20-T20*$M$2</f>
+        <v>0.300512489948851</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">I20-U20*$M$2</f>
+        <v>0.13946892300441</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <f aca="false">J20-V20*$M$2</f>
+        <v>-0.283597366462453</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <f aca="false">K20-W20*$M$2</f>
+        <v>0.759035444396149</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <f aca="false">L20-X20*$M$2</f>
+        <v>0.885199821338671</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">Z20</f>
+        <v>0.300512489948851</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">AA20</f>
+        <v>0.13946892300441</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">AB20</f>
+        <v>-0.283597366462453</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">AC20</f>
+        <v>0.759035444396149</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">AD20</f>
+        <v>0.885199821338671</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">A21*H21+B21*I21+C21*J21+D21*K21+L21</f>
+        <v>2.75011001111974</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O21))</f>
+        <v>0.939919562540232</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">(P21-F21)^2</f>
+        <v>0.00360965896535715</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">IF(P21&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">2*(P21-F21)*(1-P21)*P21*A21</f>
+        <v>-0.0346064485715067</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">2*(P21-F21)*(1-P21)*P21*B21</f>
+        <v>-0.0257851969748481</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">2*(P21-F21)*(1-P21)*P21*C21</f>
+        <v>-0.0101783672269137</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <f aca="false">2*(P21-F21)*(1-P21)*P21*D21</f>
+        <v>-0.00203567344538275</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <f aca="false">2*(P21-F21)*(1-P21)*P21</f>
+        <v>-0.00678557815127583</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <f aca="false">H21-T21*$M$2</f>
+        <v>0.303973134806002</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <f aca="false">I21-U21*$M$2</f>
+        <v>0.142047442701895</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <f aca="false">J21-V21*$M$2</f>
+        <v>-0.282579529739762</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <f aca="false">K21-W21*$M$2</f>
+        <v>0.759239011740688</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <f aca="false">L21-X21*$M$2</f>
+        <v>0.885878379153798</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">Z21</f>
+        <v>0.303973134806002</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">AA21</f>
+        <v>0.142047442701895</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">AB21</f>
+        <v>-0.282579529739762</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">AC21</f>
+        <v>0.759239011740688</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">AD21</f>
+        <v>0.885878379153798</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">A22*H22+B22*I22+C22*J22+D22*K22+L22</f>
+        <v>2.6817572140832</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O22))</f>
+        <v>0.935941558031492</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">(P22-F22)^2</f>
+        <v>0.00410348398743266</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">IF(P22&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">2*(P22-F22)*(1-P22)*P22*A22</f>
+        <v>-0.041478708922794</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">2*(P22-F22)*(1-P22)*P22*B22</f>
+        <v>-0.026116224136574</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">2*(P22-F22)*(1-P22)*P22*C22</f>
+        <v>-0.013058112068287</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <f aca="false">2*(P22-F22)*(1-P22)*P22*D22</f>
+        <v>-0.001536248478622</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <f aca="false">2*(P22-F22)*(1-P22)*P22</f>
+        <v>-0.00768124239311001</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <f aca="false">H22-T22*$M$2</f>
+        <v>0.308121005698281</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <f aca="false">I22-U22*$M$2</f>
+        <v>0.144659065115553</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <f aca="false">J22-V22*$M$2</f>
+        <v>-0.281273718532933</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <f aca="false">K22-W22*$M$2</f>
+        <v>0.75939263658855</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <f aca="false">L22-X22*$M$2</f>
+        <v>0.886646503393109</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">Z22</f>
+        <v>0.308121005698281</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">AA22</f>
+        <v>0.144659065115553</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">AB22</f>
+        <v>-0.281273718532933</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">AC22</f>
+        <v>0.75939263658855</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">AD22</f>
+        <v>0.886646503393109</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">A23*H23+B23*I23+C23*J23+D23*K23+L23</f>
+        <v>2.87514865021791</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O23))</f>
+        <v>0.946604184180065</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">(P23-F23)^2</f>
+        <v>0.0028511131470764</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">IF(P23&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">2*(P23-F23)*(1-P23)*P23*A23</f>
+        <v>-0.0275285314728518</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">2*(P23-F23)*(1-P23)*P23*B23</f>
+        <v>-0.0199716796959905</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">2*(P23-F23)*(1-P23)*P23*C23</f>
+        <v>-0.00809662690377994</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <f aca="false">2*(P23-F23)*(1-P23)*P23*D23</f>
+        <v>-0.00215910050767465</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <f aca="false">2*(P23-F23)*(1-P23)*P23</f>
+        <v>-0.00539775126918663</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <f aca="false">H23-T23*$M$2</f>
+        <v>0.310873858845567</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <f aca="false">I23-U23*$M$2</f>
+        <v>0.146656233085152</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <f aca="false">J23-V23*$M$2</f>
+        <v>-0.280464055842555</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <f aca="false">K23-W23*$M$2</f>
+        <v>0.759608546639317</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <f aca="false">L23-X23*$M$2</f>
+        <v>0.887186278520028</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">Z23</f>
+        <v>0.310873858845567</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">AA23</f>
+        <v>0.146656233085152</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">AB23</f>
+        <v>-0.280464055842555</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">AC23</f>
+        <v>0.759608546639317</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">AD23</f>
+        <v>0.887186278520028</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">A24*H24+B24*I24+C24*J24+D24*K24+L24</f>
+        <v>2.71662612180149</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O24))</f>
+        <v>0.938000613998924</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">(P24-F24)^2</f>
+        <v>0.00384392386451037</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">IF(P24&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">2*(P24-F24)*(1-P24)*P24*A24</f>
+        <v>-0.0331715470946977</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">2*(P24-F24)*(1-P24)*P24*B24</f>
+        <v>-0.0259603412045461</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">2*(P24-F24)*(1-P24)*P24*C24</f>
+        <v>-0.00721120589015168</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <f aca="false">2*(P24-F24)*(1-P24)*P24*D24</f>
+        <v>-0.00144224117803034</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <f aca="false">2*(P24-F24)*(1-P24)*P24</f>
+        <v>-0.00721120589015168</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <f aca="false">H24-T24*$M$2</f>
+        <v>0.314191013555036</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <f aca="false">I24-U24*$M$2</f>
+        <v>0.149252267205606</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <f aca="false">J24-V24*$M$2</f>
+        <v>-0.27974293525354</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <f aca="false">K24-W24*$M$2</f>
+        <v>0.75975277075712</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <f aca="false">L24-X24*$M$2</f>
+        <v>0.887907399109043</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">Z24</f>
+        <v>0.314191013555036</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">AA24</f>
+        <v>0.149252267205606</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">AB24</f>
+        <v>-0.27974293525354</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">AC24</f>
+        <v>0.75975277075712</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">AD24</f>
+        <v>0.887907399109043</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">A25*H25+B25*I25+C25*J25+D25*K25+L25</f>
+        <v>2.88712744546577</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O25))</f>
+        <v>0.94720641979486</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">(P25-F25)^2</f>
+        <v>0.00278716211087655</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">IF(P25&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">2*(P25-F25)*(1-P25)*P25*A25</f>
+        <v>-0.0269281820131989</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">2*(P25-F25)*(1-P25)*P25*B25</f>
+        <v>-0.0174241177732463</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">2*(P25-F25)*(1-P25)*P25*C25</f>
+        <v>-0.0089760606710663</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <f aca="false">2*(P25-F25)*(1-P25)*P25*D25</f>
+        <v>-0.00264001784443126</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <f aca="false">2*(P25-F25)*(1-P25)*P25</f>
+        <v>-0.00528003568886253</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <f aca="false">H25-T25*$M$2</f>
+        <v>0.316883831756356</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <f aca="false">I25-U25*$M$2</f>
+        <v>0.150994678982931</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <f aca="false">J25-V25*$M$2</f>
+        <v>-0.278845329186434</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <f aca="false">K25-W25*$M$2</f>
+        <v>0.760016772541563</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <f aca="false">L25-X25*$M$2</f>
+        <v>0.88843540267793</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">Z25</f>
+        <v>0.316883831756356</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">AA25</f>
+        <v>0.150994678982931</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">AB25</f>
+        <v>-0.278845329186434</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">AC25</f>
+        <v>0.760016772541563</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">AD25</f>
+        <v>0.88843540267793</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">A26*H26+B26*I26+C26*J26+D26*K26+L26</f>
+        <v>2.54505693270449</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O26))</f>
+        <v>0.927240732314268</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">(P26-F26)^2</f>
+        <v>0.00529391103416401</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">IF(P26&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">2*(P26-F26)*(1-P26)*P26*A26</f>
+        <v>-0.0471238074635983</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">2*(P26-F26)*(1-P26)*P26*B26</f>
+        <v>-0.0333793636200488</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">2*(P26-F26)*(1-P26)*P26*C26</f>
+        <v>-0.0186531737876743</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">2*(P26-F26)*(1-P26)*P26*D26</f>
+        <v>-0.00196349197764993</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <f aca="false">2*(P26-F26)*(1-P26)*P26</f>
+        <v>-0.00981745988824964</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <f aca="false">H26-T26*$M$2</f>
+        <v>0.321596212502716</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <f aca="false">I26-U26*$M$2</f>
+        <v>0.154332615344936</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <f aca="false">J26-V26*$M$2</f>
+        <v>-0.276980011807666</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <f aca="false">K26-W26*$M$2</f>
+        <v>0.760213121739328</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <f aca="false">L26-X26*$M$2</f>
+        <v>0.889417148666755</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">Z26</f>
+        <v>0.321596212502716</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">AA26</f>
+        <v>0.154332615344936</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">AB26</f>
+        <v>-0.276980011807666</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">AC26</f>
+        <v>0.760213121739328</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">AD26</f>
+        <v>0.889417148666755</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">A27*H27+B27*I27+C27*J27+D27*K27+L27</f>
+        <v>2.66927066267074</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O27))</f>
+        <v>0.935188839794669</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">(P27-F27)^2</f>
+        <v>0.00420048648716107</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">IF(P27&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">2*(P27-F27)*(1-P27)*P27*A27</f>
+        <v>-0.0392824808450135</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">2*(P27-F27)*(1-P27)*P27*B27</f>
+        <v>-0.0235694885070081</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">2*(P27-F27)*(1-P27)*P27*C27</f>
+        <v>-0.0125703938704043</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <f aca="false">2*(P27-F27)*(1-P27)*P27*D27</f>
+        <v>-0.00157129923380054</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <f aca="false">2*(P27-F27)*(1-P27)*P27</f>
+        <v>-0.0078564961690027</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <f aca="false">H27-T27*$M$2</f>
+        <v>0.325524460587217</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <f aca="false">I27-U27*$M$2</f>
+        <v>0.156689564195637</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <f aca="false">J27-V27*$M$2</f>
+        <v>-0.275722972420626</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <f aca="false">K27-W27*$M$2</f>
+        <v>0.760370251662708</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <f aca="false">L27-X27*$M$2</f>
+        <v>0.890202798283655</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">Z27</f>
+        <v>0.325524460587217</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">AA27</f>
+        <v>0.156689564195637</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">AB27</f>
+        <v>-0.275722972420626</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">AC27</f>
+        <v>0.760370251662708</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">AD27</f>
+        <v>0.890202798283655</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">A28*H28+B28*I28+C28*J28+D28*K28+L28</f>
+        <v>2.91356096427699</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O28))</f>
+        <v>0.948512746919304</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">(P28-F28)^2</f>
+        <v>0.00265093722979561</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">IF(P28&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">2*(P28-F28)*(1-P28)*P28*A28</f>
+        <v>-0.0251444775374408</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">2*(P28-F28)*(1-P28)*P28*B28</f>
+        <v>-0.0170982447254598</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">2*(P28-F28)*(1-P28)*P28*C28</f>
+        <v>-0.00804623281198106</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <f aca="false">2*(P28-F28)*(1-P28)*P28*D28</f>
+        <v>-0.00201155820299527</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <f aca="false">2*(P28-F28)*(1-P28)*P28</f>
+        <v>-0.00502889550748817</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <f aca="false">H28-T28*$M$2</f>
+        <v>0.328038908340962</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <f aca="false">I28-U28*$M$2</f>
+        <v>0.158399388668183</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <f aca="false">J28-V28*$M$2</f>
+        <v>-0.274918349139428</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <f aca="false">K28-W28*$M$2</f>
+        <v>0.760571407483008</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <f aca="false">L28-X28*$M$2</f>
+        <v>0.890705687834404</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">Z28</f>
+        <v>0.328038908340962</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">AA28</f>
+        <v>0.158399388668183</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">AB28</f>
+        <v>-0.274918349139428</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">AC28</f>
+        <v>0.760571407483008</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">AD28</f>
+        <v>0.890705687834404</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">A29*H29+B29*I29+C29*J29+D29*K29+L29</f>
+        <v>2.8906426293335</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O29))</f>
+        <v>0.94738192547114</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <f aca="false">(P29-F29)^2</f>
+        <v>0.00276866176712467</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <f aca="false">IF(P29&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <f aca="false">2*(P29-F29)*(1-P29)*P29*A29</f>
+        <v>-0.0272789932055357</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <f aca="false">2*(P29-F29)*(1-P29)*P29*B29</f>
+        <v>-0.0183608608114183</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">2*(P29-F29)*(1-P29)*P29*C29</f>
+        <v>-0.00786894034775069</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <f aca="false">2*(P29-F29)*(1-P29)*P29*D29</f>
+        <v>-0.00104919204636676</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <f aca="false">2*(P29-F29)*(1-P29)*P29</f>
+        <v>-0.00524596023183379</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <f aca="false">H29-T29*$M$2</f>
+        <v>0.330766807661515</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <f aca="false">I29-U29*$M$2</f>
+        <v>0.160235474749324</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <f aca="false">J29-V29*$M$2</f>
+        <v>-0.274131455104653</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <f aca="false">K29-W29*$M$2</f>
+        <v>0.760676326687645</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <f aca="false">L29-X29*$M$2</f>
+        <v>0.891230283857587</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">Z29</f>
+        <v>0.330766807661515</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">AA29</f>
+        <v>0.160235474749324</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">AB29</f>
+        <v>-0.274131455104653</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">AC29</f>
+        <v>0.760676326687645</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">AD29</f>
+        <v>0.891230283857587</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">A30*H30+B30*I30+C30*J30+D30*K30+L30</f>
+        <v>2.92436952603618</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O30))</f>
+        <v>0.949038045609987</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">(P30-F30)^2</f>
+        <v>0.00259712079524978</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <f aca="false">IF(P30&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <f aca="false">2*(P30-F30)*(1-P30)*P30*A30</f>
+        <v>-0.0256335710148638</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">2*(P30-F30)*(1-P30)*P30*B30</f>
+        <v>-0.016760411817411</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">2*(P30-F30)*(1-P30)*P30*C30</f>
+        <v>-0.00690134604246334</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <f aca="false">2*(P30-F30)*(1-P30)*P30*D30</f>
+        <v>-0.000985906577494763</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <f aca="false">2*(P30-F30)*(1-P30)*P30</f>
+        <v>-0.00492953288747382</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <f aca="false">H30-T30*$M$2</f>
+        <v>0.333330164763001</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <f aca="false">I30-U30*$M$2</f>
+        <v>0.161911515931066</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <f aca="false">J30-V30*$M$2</f>
+        <v>-0.273441320500406</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <f aca="false">K30-W30*$M$2</f>
+        <v>0.760774917345394</v>
+      </c>
+      <c r="AD30" s="0" t="n">
+        <f aca="false">L30-X30*$M$2</f>
+        <v>0.891723237146334</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">Z30</f>
+        <v>0.333330164763001</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">AA30</f>
+        <v>0.161911515931066</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">AB30</f>
+        <v>-0.273441320500406</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">AC30</f>
+        <v>0.760774917345394</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">AD30</f>
+        <v>0.891723237146334</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">A31*H31+B31*I31+C31*J31+D31*K31+L31</f>
+        <v>2.69114073318028</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O31))</f>
+        <v>0.936501850444426</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">(P31-F31)^2</f>
+        <v>0.00403201499698204</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <f aca="false">IF(P31&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <f aca="false">2*(P31-F31)*(1-P31)*P31*A31</f>
+        <v>-0.0354943013535176</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">2*(P31-F31)*(1-P31)*P31*B31</f>
+        <v>-0.0241663328364375</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">2*(P31-F31)*(1-P31)*P31*C31</f>
+        <v>-0.0120831664182187</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <f aca="false">2*(P31-F31)*(1-P31)*P31*D31</f>
+        <v>-0.00151039580227734</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <f aca="false">2*(P31-F31)*(1-P31)*P31</f>
+        <v>-0.00755197901138671</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <f aca="false">H31-T31*$M$2</f>
+        <v>0.336879594898353</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <f aca="false">I31-U31*$M$2</f>
+        <v>0.164328149214709</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <f aca="false">J31-V31*$M$2</f>
+        <v>-0.272233003858584</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <f aca="false">K31-W31*$M$2</f>
+        <v>0.760925956925622</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <f aca="false">L31-X31*$M$2</f>
+        <v>0.892478435047473</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">Z31</f>
+        <v>0.336879594898353</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">AA31</f>
+        <v>0.164328149214709</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">AB31</f>
+        <v>-0.272233003858584</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">AC31</f>
+        <v>0.760925956925622</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">AD31</f>
+        <v>0.892478435047473</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">A32*H32+B32*I32+C32*J32+D32*K32+L32</f>
+        <v>2.73553013833656</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O32))</f>
+        <v>0.939090925599039</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">(P32-F32)^2</f>
+        <v>0.00370991534438175</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <f aca="false">IF(P32&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <f aca="false">2*(P32-F32)*(1-P32)*P32*A32</f>
+        <v>-0.0334458992126356</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">2*(P32-F32)*(1-P32)*P32*B32</f>
+        <v>-0.0216004765748272</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <f aca="false">2*(P32-F32)*(1-P32)*P32*C32</f>
+        <v>-0.0111486330708785</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <f aca="false">2*(P32-F32)*(1-P32)*P32*D32</f>
+        <v>-0.00139357913385982</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <f aca="false">2*(P32-F32)*(1-P32)*P32</f>
+        <v>-0.00696789566929908</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <f aca="false">H32-T32*$M$2</f>
+        <v>0.340224184819617</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <f aca="false">I32-U32*$M$2</f>
+        <v>0.166488196872192</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <f aca="false">J32-V32*$M$2</f>
+        <v>-0.271118140551496</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <f aca="false">K32-W32*$M$2</f>
+        <v>0.761065314839008</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <f aca="false">L32-X32*$M$2</f>
+        <v>0.893175224614403</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">Z32</f>
+        <v>0.340224184819617</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">AA32</f>
+        <v>0.166488196872192</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">AB32</f>
+        <v>-0.271118140551496</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">AC32</f>
+        <v>0.761065314839008</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">AD32</f>
+        <v>0.893175224614403</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">A33*H33+B33*I33+C33*J33+D33*K33+L33</f>
+        <v>3.19419460711414</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O33))</f>
+        <v>0.960615224577931</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">(P33-F33)^2</f>
+        <v>0.00155116053504681</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <f aca="false">IF(P33&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <f aca="false">2*(P33-F33)*(1-P33)*P33*A33</f>
+        <v>-0.0160927389978885</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">2*(P33-F33)*(1-P33)*P33*B33</f>
+        <v>-0.0101324652949668</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <f aca="false">2*(P33-F33)*(1-P33)*P33*C33</f>
+        <v>-0.00447020527719124</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <f aca="false">2*(P33-F33)*(1-P33)*P33*D33</f>
+        <v>-0.00119205474058433</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <f aca="false">2*(P33-F33)*(1-P33)*P33</f>
+        <v>-0.00298013685146083</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <f aca="false">H33-T33*$M$2</f>
+        <v>0.341833458719406</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <f aca="false">I33-U33*$M$2</f>
+        <v>0.167501443401689</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <f aca="false">J33-V33*$M$2</f>
+        <v>-0.270671120023777</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <f aca="false">K33-W33*$M$2</f>
+        <v>0.761184520313066</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <f aca="false">L33-X33*$M$2</f>
+        <v>0.893473238299549</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">Z33</f>
+        <v>0.341833458719406</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">AA33</f>
+        <v>0.167501443401689</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">AB33</f>
+        <v>-0.270671120023777</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">AC33</f>
+        <v>0.761184520313066</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">AD33</f>
+        <v>0.893473238299549</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">A34*H34+B34*I34+C34*J34+D34*K34+L34</f>
+        <v>3.02787491358302</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O34))</f>
+        <v>0.953817654115297</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <f aca="false">(P34-F34)^2</f>
+        <v>0.00213280907141434</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <f aca="false">IF(P34&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <f aca="false">2*(P34-F34)*(1-P34)*P34*A34</f>
+        <v>-0.0211568338297914</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">2*(P34-F34)*(1-P34)*P34*B34</f>
+        <v>-0.0166813497504124</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <f aca="false">2*(P34-F34)*(1-P34)*P34*C34</f>
+        <v>-0.00610293283551675</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <f aca="false">2*(P34-F34)*(1-P34)*P34*D34</f>
+        <v>-0.00040686218903445</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <f aca="false">2*(P34-F34)*(1-P34)*P34</f>
+        <v>-0.0040686218903445</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <f aca="false">H34-T34*$M$2</f>
+        <v>0.343949142102385</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <f aca="false">I34-U34*$M$2</f>
+        <v>0.16916957837673</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <f aca="false">J34-V34*$M$2</f>
+        <v>-0.270060826740226</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <f aca="false">K34-W34*$M$2</f>
+        <v>0.76122520653197</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <f aca="false">L34-X34*$M$2</f>
+        <v>0.893880100488583</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">Z34</f>
+        <v>0.343949142102385</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">AA34</f>
+        <v>0.16916957837673</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">AB34</f>
+        <v>-0.270060826740226</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">AC34</f>
+        <v>0.76122520653197</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">AD34</f>
+        <v>0.893880100488583</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">A35*H35+B35*I35+C35*J35+D35*K35+L35</f>
+        <v>3.27027249510404</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O35))</f>
+        <v>0.963394782553954</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <f aca="false">(P35-F35)^2</f>
+        <v>0.00133994194427231</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <f aca="false">IF(P35&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <f aca="false">2*(P35-F35)*(1-P35)*P35*A35</f>
+        <v>-0.0141998238584086</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">2*(P35-F35)*(1-P35)*P35*B35</f>
+        <v>-0.010843501855512</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <f aca="false">2*(P35-F35)*(1-P35)*P35*C35</f>
+        <v>-0.003614500618504</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <f aca="false">2*(P35-F35)*(1-P35)*P35*D35</f>
+        <v>-0.000516357231214856</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <f aca="false">2*(P35-F35)*(1-P35)*P35</f>
+        <v>-0.00258178615607428</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <f aca="false">H35-T35*$M$2</f>
+        <v>0.345369124488226</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <f aca="false">I35-U35*$M$2</f>
+        <v>0.170253928562281</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <f aca="false">J35-V35*$M$2</f>
+        <v>-0.269699376678375</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <f aca="false">K35-W35*$M$2</f>
+        <v>0.761276842255091</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <f aca="false">L35-X35*$M$2</f>
+        <v>0.894138279104191</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">Z35</f>
+        <v>0.345369124488226</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">AA35</f>
+        <v>0.170253928562281</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">AB35</f>
+        <v>-0.269699376678375</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">AC35</f>
+        <v>0.761276842255091</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">AD35</f>
+        <v>0.894138279104191</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">A36*H36+B36*I36+C36*J36+D36*K36+L36</f>
+        <v>2.78581278684751</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O36))</f>
+        <v>0.941904341619407</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <f aca="false">(P36-F36)^2</f>
+        <v>0.00337510552267457</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <f aca="false">IF(P36&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <f aca="false">2*(P36-F36)*(1-P36)*P36*A36</f>
+        <v>-0.031154460143262</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <f aca="false">2*(P36-F36)*(1-P36)*P36*B36</f>
+        <v>-0.0197099645804311</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <f aca="false">2*(P36-F36)*(1-P36)*P36*C36</f>
+        <v>-0.00953707963569245</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <f aca="false">2*(P36-F36)*(1-P36)*P36*D36</f>
+        <v>-0.000635805309046163</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <f aca="false">2*(P36-F36)*(1-P36)*P36</f>
+        <v>-0.00635805309046163</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <f aca="false">H36-T36*$M$2</f>
+        <v>0.348484570502552</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <f aca="false">I36-U36*$M$2</f>
+        <v>0.172224925020324</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <f aca="false">J36-V36*$M$2</f>
+        <v>-0.268745668714806</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <f aca="false">K36-W36*$M$2</f>
+        <v>0.761340422785996</v>
+      </c>
+      <c r="AD36" s="0" t="n">
+        <f aca="false">L36-X36*$M$2</f>
+        <v>0.894774084413237</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">Z36</f>
+        <v>0.348484570502552</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">AA36</f>
+        <v>0.172224925020324</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">AB36</f>
+        <v>-0.268745668714806</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">AC36</f>
+        <v>0.761340422785996</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">AD36</f>
+        <v>0.894774084413237</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">A37*H37+B37*I37+C37*J37+D37*K37+L37</f>
+        <v>3.01808997909047</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O37))</f>
+        <v>0.953384713230561</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">(P37-F37)^2</f>
+        <v>0.002172984960597</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <f aca="false">IF(P37&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <f aca="false">2*(P37-F37)*(1-P37)*P37*A37</f>
+        <v>-0.0207169064351309</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <f aca="false">2*(P37-F37)*(1-P37)*P37*B37</f>
+        <v>-0.0132588201184838</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <f aca="false">2*(P37-F37)*(1-P37)*P37*C37</f>
+        <v>-0.00497205754443142</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <f aca="false">2*(P37-F37)*(1-P37)*P37*D37</f>
+        <v>-0.000828676257405236</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <f aca="false">2*(P37-F37)*(1-P37)*P37</f>
+        <v>-0.00414338128702618</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <f aca="false">H37-T37*$M$2</f>
+        <v>0.350556261146065</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <f aca="false">I37-U37*$M$2</f>
+        <v>0.173550807032173</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <f aca="false">J37-V37*$M$2</f>
+        <v>-0.268248462960363</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <f aca="false">K37-W37*$M$2</f>
+        <v>0.761423290411736</v>
+      </c>
+      <c r="AD37" s="0" t="n">
+        <f aca="false">L37-X37*$M$2</f>
+        <v>0.89518842254194</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">Z37</f>
+        <v>0.350556261146065</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">AA37</f>
+        <v>0.173550807032173</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">AB37</f>
+        <v>-0.268248462960363</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">AC37</f>
+        <v>0.761423290411736</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">AD37</f>
+        <v>0.89518842254194</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">A38*H38+B38*I38+C38*J38+D38*K38+L38</f>
+        <v>3.23423733969178</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O38))</f>
+        <v>0.962102554425623</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">(P38-F38)^2</f>
+        <v>0.0014362163810629</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <f aca="false">IF(P38&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <f aca="false">2*(P38-F38)*(1-P38)*P38*A38</f>
+        <v>-0.015199661938214</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">2*(P38-F38)*(1-P38)*P38*B38</f>
+        <v>-0.00967251214249979</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <f aca="false">2*(P38-F38)*(1-P38)*P38*C38</f>
+        <v>-0.00359264736721421</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <f aca="false">2*(P38-F38)*(1-P38)*P38*D38</f>
+        <v>-0.000552714979571417</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <f aca="false">2*(P38-F38)*(1-P38)*P38</f>
+        <v>-0.00276357489785708</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <f aca="false">H38-T38*$M$2</f>
+        <v>0.352076227339886</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <f aca="false">I38-U38*$M$2</f>
+        <v>0.174518058246423</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <f aca="false">J38-V38*$M$2</f>
+        <v>-0.267889198223641</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <f aca="false">K38-W38*$M$2</f>
+        <v>0.761478561909693</v>
+      </c>
+      <c r="AD38" s="0" t="n">
+        <f aca="false">L38-X38*$M$2</f>
+        <v>0.895464780031725</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">Z38</f>
+        <v>0.352076227339886</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">AA38</f>
+        <v>0.174518058246423</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">AB38</f>
+        <v>-0.267889198223641</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">AC38</f>
+        <v>0.761478561909693</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">AD38</f>
+        <v>0.895464780031725</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">A39*H39+B39*I39+C39*J39+D39*K39+L39</f>
+        <v>2.83595833341659</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O39))</f>
+        <v>0.944588296075334</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">(P39-F39)^2</f>
+        <v>0.00307045693183482</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <f aca="false">IF(P39&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <f aca="false">2*(P39-F39)*(1-P39)*P39*A39</f>
+        <v>-0.0284231132778626</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">2*(P39-F39)*(1-P39)*P39*B39</f>
+        <v>-0.0179819696247702</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <f aca="false">2*(P39-F39)*(1-P39)*P39*C39</f>
+        <v>-0.00870095304424365</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <f aca="false">2*(P39-F39)*(1-P39)*P39*D39</f>
+        <v>-0.00058006353628291</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <f aca="false">2*(P39-F39)*(1-P39)*P39</f>
+        <v>-0.0058006353628291</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <f aca="false">H39-T39*$M$2</f>
+        <v>0.354918538667673</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <f aca="false">I39-U39*$M$2</f>
+        <v>0.1763162552089</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <f aca="false">J39-V39*$M$2</f>
+        <v>-0.267019102919217</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <f aca="false">K39-W39*$M$2</f>
+        <v>0.761536568263322</v>
+      </c>
+      <c r="AD39" s="0" t="n">
+        <f aca="false">L39-X39*$M$2</f>
+        <v>0.896044843568008</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">Z39</f>
+        <v>0.354918538667673</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">AA39</f>
+        <v>0.1763162552089</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">AB39</f>
+        <v>-0.267019102919217</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">AC39</f>
+        <v>0.761536568263322</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">AD39</f>
+        <v>0.896044843568008</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="false">A40*H40+B40*I40+C40*J40+D40*K40+L40</f>
+        <v>2.79181765919015</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O40))</f>
+        <v>0.942232060939923</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">(P40-F40)^2</f>
+        <v>0.00333713478324872</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <f aca="false">IF(P40&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <f aca="false">2*(P40-F40)*(1-P40)*P40*A40</f>
+        <v>-0.0276703273832018</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">2*(P40-F40)*(1-P40)*P40*B40</f>
+        <v>-0.0188661323067285</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <f aca="false">2*(P40-F40)*(1-P40)*P40*C40</f>
+        <v>-0.00817532399958235</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <f aca="false">2*(P40-F40)*(1-P40)*P40*D40</f>
+        <v>-0.0012577421537819</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <f aca="false">2*(P40-F40)*(1-P40)*P40</f>
+        <v>-0.0062887107689095</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <f aca="false">H40-T40*$M$2</f>
+        <v>0.357685571405993</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <f aca="false">I40-U40*$M$2</f>
+        <v>0.178202868439572</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <f aca="false">J40-V40*$M$2</f>
+        <v>-0.266201570519259</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <f aca="false">K40-W40*$M$2</f>
+        <v>0.7616623424787</v>
+      </c>
+      <c r="AD40" s="0" t="n">
+        <f aca="false">L40-X40*$M$2</f>
+        <v>0.896673714644899</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">Z40</f>
+        <v>0.357685571405993</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">AA40</f>
+        <v>0.178202868439572</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">AB40</f>
+        <v>-0.266201570519259</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">AC40</f>
+        <v>0.7616623424787</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">AD40</f>
+        <v>0.896673714644899</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">A41*H41+B41*I41+C41*J41+D41*K41+L41</f>
+        <v>3.07978999422686</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O41))</f>
+        <v>0.956051361603657</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <f aca="false">(P41-F41)^2</f>
+        <v>0.00193148281689249</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <f aca="false">IF(P41&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <f aca="false">2*(P41-F41)*(1-P41)*P41*A41</f>
+        <v>-0.0188352871254421</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <f aca="false">2*(P41-F41)*(1-P41)*P41*B41</f>
+        <v>-0.0125568580836281</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <f aca="false">2*(P41-F41)*(1-P41)*P41*C41</f>
+        <v>-0.00553979033101238</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <f aca="false">2*(P41-F41)*(1-P41)*P41*D41</f>
+        <v>-0.000738638710801651</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <f aca="false">2*(P41-F41)*(1-P41)*P41</f>
+        <v>-0.00369319355400826</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <f aca="false">H41-T41*$M$2</f>
+        <v>0.359569100118537</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <f aca="false">I41-U41*$M$2</f>
+        <v>0.179458554247935</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <f aca="false">J41-V41*$M$2</f>
+        <v>-0.265647591486158</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <f aca="false">K41-W41*$M$2</f>
+        <v>0.76173620634978</v>
+      </c>
+      <c r="AD41" s="0" t="n">
+        <f aca="false">L41-X41*$M$2</f>
+        <v>0.8970430340003</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">Z41</f>
+        <v>0.359569100118537</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">AA41</f>
+        <v>0.179458554247935</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">AB41</f>
+        <v>-0.265647591486158</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">AC41</f>
+        <v>0.76173620634978</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">AD41</f>
+        <v>0.8970430340003</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">A42*H42+B42*I42+C42*J42+D42*K42+L42</f>
+        <v>3.8061811173282</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O42))</f>
+        <v>0.97825063008146</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <f aca="false">(P42-F42)^2</f>
+        <v>0.956974295254774</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <f aca="false">IF(P42&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <f aca="false">2*(P42-F42)*(1-P42)*P42*A42</f>
+        <v>0.291390231300419</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <f aca="false">2*(P42-F42)*(1-P42)*P42*B42</f>
+        <v>0.133206962880191</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <f aca="false">2*(P42-F42)*(1-P42)*P42*C42</f>
+        <v>0.195647726730281</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <f aca="false">2*(P42-F42)*(1-P42)*P42*D42</f>
+        <v>0.0582780462600838</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <f aca="false">2*(P42-F42)*(1-P42)*P42</f>
+        <v>0.0416271759000598</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <f aca="false">H42-T42*$M$2</f>
+        <v>0.330430076988495</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <f aca="false">I42-U42*$M$2</f>
+        <v>0.166137857959916</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <f aca="false">J42-V42*$M$2</f>
+        <v>-0.285212364159186</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <f aca="false">K42-W42*$M$2</f>
+        <v>0.755908401723772</v>
+      </c>
+      <c r="AD42" s="0" t="n">
+        <f aca="false">L42-X42*$M$2</f>
+        <v>0.892880316410294</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">Z42</f>
+        <v>0.330430076988495</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">AA42</f>
+        <v>0.166137857959916</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">AB42</f>
+        <v>-0.285212364159186</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">AC42</f>
+        <v>0.755908401723772</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">AD42</f>
+        <v>0.892880316410294</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">A43*H43+B43*I43+C43*J43+D43*K43+L43</f>
+        <v>3.38968091847772</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O43))</f>
+        <v>0.967380477421107</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <f aca="false">(P43-F43)^2</f>
+        <v>0.935824988095488</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <f aca="false">IF(P43&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <f aca="false">2*(P43-F43)*(1-P43)*P43*A43</f>
+        <v>0.39073490341214</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <f aca="false">2*(P43-F43)*(1-P43)*P43*B43</f>
+        <v>0.19536745170607</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <f aca="false">2*(P43-F43)*(1-P43)*P43*C43</f>
+        <v>0.274735478961661</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <f aca="false">2*(P43-F43)*(1-P43)*P43*D43</f>
+        <v>0.0915784929872204</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <f aca="false">2*(P43-F43)*(1-P43)*P43</f>
+        <v>0.0610523286581469</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <f aca="false">H43-T43*$M$2</f>
+        <v>0.291356586647281</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <f aca="false">I43-U43*$M$2</f>
+        <v>0.146601112789309</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <f aca="false">J43-V43*$M$2</f>
+        <v>-0.312685912055352</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <f aca="false">K43-W43*$M$2</f>
+        <v>0.74675055242505</v>
+      </c>
+      <c r="AD43" s="0" t="n">
+        <f aca="false">L43-X43*$M$2</f>
+        <v>0.886775083544479</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">Z43</f>
+        <v>0.291356586647281</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">AA43</f>
+        <v>0.146601112789309</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">AB43</f>
+        <v>-0.312685912055352</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">AC43</f>
+        <v>0.74675055242505</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">AD43</f>
+        <v>0.886775083544479</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">A44*H44+B44*I44+C44*J44+D44*K44+L44</f>
+        <v>2.93956384062393</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O44))</f>
+        <v>0.949767922243833</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <f aca="false">(P44-F44)^2</f>
+        <v>0.902059106123368</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <f aca="false">IF(P44&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <f aca="false">2*(P44-F44)*(1-P44)*P44*A44</f>
+        <v>0.625309783600374</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <f aca="false">2*(P44-F44)*(1-P44)*P44*B44</f>
+        <v>0.280936279588574</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <f aca="false">2*(P44-F44)*(1-P44)*P44*C44</f>
+        <v>0.444060570962585</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <f aca="false">2*(P44-F44)*(1-P44)*P44*D44</f>
+        <v>0.135936909478342</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <f aca="false">2*(P44-F44)*(1-P44)*P44</f>
+        <v>0.0906246063188948</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <f aca="false">H44-T44*$M$2</f>
+        <v>0.228825608287244</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <f aca="false">I44-U44*$M$2</f>
+        <v>0.118507484830452</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <f aca="false">J44-V44*$M$2</f>
+        <v>-0.35709196915161</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <f aca="false">K44-W44*$M$2</f>
+        <v>0.733156861477216</v>
+      </c>
+      <c r="AD44" s="0" t="n">
+        <f aca="false">L44-X44*$M$2</f>
+        <v>0.87771262291259</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">Z44</f>
+        <v>0.228825608287244</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">AA44</f>
+        <v>0.118507484830452</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">AB44</f>
+        <v>-0.35709196915161</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">AC44</f>
+        <v>0.733156861477216</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">AD44</f>
+        <v>0.87771262291259</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">A45*H45+B45*I45+C45*J45+D45*K45+L45</f>
+        <v>1.93355672691641</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O45))</f>
+        <v>0.873642573392286</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">(P45-F45)^2</f>
+        <v>0.763251346043495</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">IF(P45&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <f aca="false">2*(P45-F45)*(1-P45)*P45*A45</f>
+        <v>1.06086723535023</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <f aca="false">2*(P45-F45)*(1-P45)*P45*B45</f>
+        <v>0.443635389328278</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <f aca="false">2*(P45-F45)*(1-P45)*P45*C45</f>
+        <v>0.771539807527441</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <f aca="false">2*(P45-F45)*(1-P45)*P45*D45</f>
+        <v>0.250750437446418</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <f aca="false">2*(P45-F45)*(1-P45)*P45</f>
+        <v>0.19288495188186</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <f aca="false">H45-T45*$M$2</f>
+        <v>0.12273888475222</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <f aca="false">I45-U45*$M$2</f>
+        <v>0.0741439458976239</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <f aca="false">J45-V45*$M$2</f>
+        <v>-0.434245949904354</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <f aca="false">K45-W45*$M$2</f>
+        <v>0.708081817732574</v>
+      </c>
+      <c r="AD45" s="0" t="n">
+        <f aca="false">L45-X45*$M$2</f>
+        <v>0.858424127724404</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">Z45</f>
+        <v>0.12273888475222</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">AA45</f>
+        <v>0.0741439458976239</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">AB45</f>
+        <v>-0.434245949904354</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">AC45</f>
+        <v>0.708081817732574</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">AD45</f>
+        <v>0.858424127724404</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">A46*H46+B46*I46+C46*J46+D46*K46+L46</f>
+        <v>0.928421284166013</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O46))</f>
+        <v>0.716754888542589</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">(P46-F46)^2</f>
+        <v>0.513737570249699</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">IF(P46&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <f aca="false">2*(P46-F46)*(1-P46)*P46*A46</f>
+        <v>1.89167751948806</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <f aca="false">2*(P46-F46)*(1-P46)*P46*B46</f>
+        <v>0.814876469933319</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <f aca="false">2*(P46-F46)*(1-P46)*P46*C46</f>
+        <v>1.33872562917617</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <f aca="false">2*(P46-F46)*(1-P46)*P46*D46</f>
+        <v>0.436540966035707</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <f aca="false">2*(P46-F46)*(1-P46)*P46</f>
+        <v>0.291027310690471</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <f aca="false">H46-T46*$M$2</f>
+        <v>-0.0664288671965858</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <f aca="false">I46-U46*$M$2</f>
+        <v>-0.00734370109570803</v>
+      </c>
+      <c r="AB46" s="0" t="n">
+        <f aca="false">J46-V46*$M$2</f>
+        <v>-0.568118512821971</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <f aca="false">K46-W46*$M$2</f>
+        <v>0.664427721129003</v>
+      </c>
+      <c r="AD46" s="0" t="n">
+        <f aca="false">L46-X46*$M$2</f>
+        <v>0.829321396655357</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">Z46</f>
+        <v>-0.0664288671965858</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">AA46</f>
+        <v>-0.00734370109570803</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">AB46</f>
+        <v>-0.568118512821971</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">AC46</f>
+        <v>0.664427721129003</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">AD46</f>
+        <v>0.829321396655357</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">A47*H47+B47*I47+C47*J47+D47*K47+L47</f>
+        <v>-1.26266277966433</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O47))</f>
+        <v>0.220515850118595</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">(P47-F47)^2</f>
+        <v>0.0486272401535265</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <f aca="false">IF(P47&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <f aca="false">2*(P47-F47)*(1-P47)*P47*A47</f>
+        <v>0.432107457654516</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <f aca="false">2*(P47-F47)*(1-P47)*P47*B47</f>
+        <v>0.212263312532043</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <f aca="false">2*(P47-F47)*(1-P47)*P47*C47</f>
+        <v>0.341137466569355</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <f aca="false">2*(P47-F47)*(1-P47)*P47*D47</f>
+        <v>0.0985508236755913</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <f aca="false">2*(P47-F47)*(1-P47)*P47</f>
+        <v>0.075808325904301</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <f aca="false">H47-T47*$M$2</f>
+        <v>-0.109639612962037</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <f aca="false">I47-U47*$M$2</f>
+        <v>-0.0285700323489123</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <f aca="false">J47-V47*$M$2</f>
+        <v>-0.602232259478907</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <f aca="false">K47-W47*$M$2</f>
+        <v>0.654572638761444</v>
+      </c>
+      <c r="AD47" s="0" t="n">
+        <f aca="false">L47-X47*$M$2</f>
+        <v>0.821740564064927</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">Z47</f>
+        <v>-0.109639612962037</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">AA47</f>
+        <v>-0.0285700323489123</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">AB47</f>
+        <v>-0.602232259478907</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">AC47</f>
+        <v>0.654572638761444</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">AD47</f>
+        <v>0.821740564064927</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">A48*H48+B48*I48+C48*J48+D48*K48+L48</f>
+        <v>-1.74644550187987</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O48))</f>
+        <v>0.148496085217749</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">(P48-F48)^2</f>
+        <v>0.0220510873249969</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">IF(P48&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <f aca="false">2*(P48-F48)*(1-P48)*P48*A48</f>
+        <v>0.236584998498745</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <f aca="false">2*(P48-F48)*(1-P48)*P48*B48</f>
+        <v>0.123925475404105</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <f aca="false">2*(P48-F48)*(1-P48)*P48*C48</f>
+        <v>0.176499919514937</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <f aca="false">2*(P48-F48)*(1-P48)*P48*D48</f>
+        <v>0.0600850789838084</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <f aca="false">2*(P48-F48)*(1-P48)*P48</f>
+        <v>0.0375531743648802</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <f aca="false">H48-T48*$M$2</f>
+        <v>-0.133298112811912</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <f aca="false">I48-U48*$M$2</f>
+        <v>-0.0409625798893228</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <f aca="false">J48-V48*$M$2</f>
+        <v>-0.6198822514304</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <f aca="false">K48-W48*$M$2</f>
+        <v>0.648564130863063</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <f aca="false">L48-X48*$M$2</f>
+        <v>0.817985246628439</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">Z48</f>
+        <v>-0.133298112811912</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">AA48</f>
+        <v>-0.0409625798893228</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">AB48</f>
+        <v>-0.6198822514304</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">AC48</f>
+        <v>0.648564130863063</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">AD48</f>
+        <v>0.817985246628439</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">A49*H49+B49*I49+C49*J49+D49*K49+L49</f>
+        <v>-1.33053299674156</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O49))</f>
+        <v>0.209071214969421</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">(P49-F49)^2</f>
+        <v>0.04371077292879</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <f aca="false">IF(P49&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <f aca="false">2*(P49-F49)*(1-P49)*P49*A49</f>
+        <v>0.338806663548091</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <f aca="false">2*(P49-F49)*(1-P49)*P49*B49</f>
+        <v>0.165946120921514</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <f aca="false">2*(P49-F49)*(1-P49)*P49*C49</f>
+        <v>0.228175916267082</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <f aca="false">2*(P49-F49)*(1-P49)*P49*D49</f>
+        <v>0.0691442170506308</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <f aca="false">2*(P49-F49)*(1-P49)*P49</f>
+        <v>0.0691442170506308</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <f aca="false">H49-T49*$M$2</f>
+        <v>-0.167178779166721</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <f aca="false">I49-U49*$M$2</f>
+        <v>-0.0575571919814742</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <f aca="false">J49-V49*$M$2</f>
+        <v>-0.642699843057109</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <f aca="false">K49-W49*$M$2</f>
+        <v>0.641649709158</v>
+      </c>
+      <c r="AD49" s="0" t="n">
+        <f aca="false">L49-X49*$M$2</f>
+        <v>0.811070824923375</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">Z49</f>
+        <v>-0.167178779166721</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">AA49</f>
+        <v>-0.0575571919814742</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">AB49</f>
+        <v>-0.642699843057109</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">AC49</f>
+        <v>0.641649709158</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">AD49</f>
+        <v>0.811070824923375</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">A50*H50+B50*I50+C50*J50+D50*K50+L50</f>
+        <v>-2.58149963048056</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O50))</f>
+        <v>0.0703386052200896</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">(P50-F50)^2</f>
+        <v>0.00494751938430762</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">IF(P50&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <f aca="false">2*(P50-F50)*(1-P50)*P50*A50</f>
+        <v>0.060713634584012</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <f aca="false">2*(P50-F50)*(1-P50)*P50*B50</f>
+        <v>0.0266772030747932</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <f aca="false">2*(P50-F50)*(1-P50)*P50*C50</f>
+        <v>0.0423155634979478</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <f aca="false">2*(P50-F50)*(1-P50)*P50*D50</f>
+        <v>0.0119587462059418</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <f aca="false">2*(P50-F50)*(1-P50)*P50</f>
+        <v>0.00919903554303213</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <f aca="false">H50-T50*$M$2</f>
+        <v>-0.173250142625122</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <f aca="false">I50-U50*$M$2</f>
+        <v>-0.0602249122889535</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <f aca="false">J50-V50*$M$2</f>
+        <v>-0.646931399406903</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <f aca="false">K50-W50*$M$2</f>
+        <v>0.640453834537406</v>
+      </c>
+      <c r="AD50" s="0" t="n">
+        <f aca="false">L50-X50*$M$2</f>
+        <v>0.810150921369072</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">Z50</f>
+        <v>-0.173250142625122</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">AA50</f>
+        <v>-0.0602249122889535</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">AB50</f>
+        <v>-0.646931399406903</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">AC50</f>
+        <v>0.640453834537406</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">AD50</f>
+        <v>0.810150921369072</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">A51*H51+B51*I51+C51*J51+D51*K51+L51</f>
+        <v>-1.87975417279629</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O51))</f>
+        <v>0.132417112312777</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">(P51-F51)^2</f>
+        <v>0.0175342916332545</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">IF(P51&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <f aca="false">2*(P51-F51)*(1-P51)*P51*A51</f>
+        <v>0.15820949423478</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <f aca="false">2*(P51-F51)*(1-P51)*P51*B51</f>
+        <v>0.0821472373911359</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <f aca="false">2*(P51-F51)*(1-P51)*P51*C51</f>
+        <v>0.118657120676085</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <f aca="false">2*(P51-F51)*(1-P51)*P51*D51</f>
+        <v>0.0425948638324408</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <f aca="false">2*(P51-F51)*(1-P51)*P51</f>
+        <v>0.0304249027374577</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <f aca="false">H51-T51*$M$2</f>
+        <v>-0.1890710920486</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <f aca="false">I51-U51*$M$2</f>
+        <v>-0.0684396360280671</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <f aca="false">J51-V51*$M$2</f>
+        <v>-0.658797111474512</v>
+      </c>
+      <c r="AC51" s="0" t="n">
+        <f aca="false">K51-W51*$M$2</f>
+        <v>0.636194348154162</v>
+      </c>
+      <c r="AD51" s="0" t="n">
+        <f aca="false">L51-X51*$M$2</f>
+        <v>0.807108431095327</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">Z51</f>
+        <v>-0.1890710920486</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">AA51</f>
+        <v>-0.0684396360280671</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">AB51</f>
+        <v>-0.658797111474512</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">AC51</f>
+        <v>0.636194348154162</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">AD51</f>
+        <v>0.807108431095327</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">A52*H52+B52*I52+C52*J52+D52*K52+L52</f>
+        <v>-1.94472184321044</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O52))</f>
+        <v>0.125130028879261</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">(P52-F52)^2</f>
+        <v>0.0156575241273248</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">IF(P52&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <f aca="false">2*(P52-F52)*(1-P52)*P52*A52</f>
+        <v>0.136982976810949</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <f aca="false">2*(P52-F52)*(1-P52)*P52*B52</f>
+        <v>0.0547931907243795</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <f aca="false">2*(P52-F52)*(1-P52)*P52*C52</f>
+        <v>0.0958880837676642</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <f aca="false">2*(P52-F52)*(1-P52)*P52*D52</f>
+        <v>0.0273965953621898</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <f aca="false">2*(P52-F52)*(1-P52)*P52</f>
+        <v>0.0273965953621898</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <f aca="false">H52-T52*$M$2</f>
+        <v>-0.202769389729695</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <f aca="false">I52-U52*$M$2</f>
+        <v>-0.073918955100505</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <f aca="false">J52-V52*$M$2</f>
+        <v>-0.668385919851278</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <f aca="false">K52-W52*$M$2</f>
+        <v>0.633454688617943</v>
+      </c>
+      <c r="AD52" s="0" t="n">
+        <f aca="false">L52-X52*$M$2</f>
+        <v>0.804368771559107</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">Z52</f>
+        <v>-0.202769389729695</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <f aca="false">AA52</f>
+        <v>-0.073918955100505</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">AB52</f>
+        <v>-0.668385919851278</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">AC52</f>
+        <v>0.633454688617943</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">AD52</f>
+        <v>0.804368771559107</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">A53*H53+B53*I53+C53*J53+D53*K53+L53</f>
+        <v>-2.47076632359606</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O53))</f>
+        <v>0.0779331496282001</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">(P53-F53)^2</f>
+        <v>0.00607357581097143</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">IF(P53&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <f aca="false">2*(P53-F53)*(1-P53)*P53*A53</f>
+        <v>0.066082866438498</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <f aca="false">2*(P53-F53)*(1-P53)*P53*B53</f>
+        <v>0.0336014575111007</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <f aca="false">2*(P53-F53)*(1-P53)*P53*C53</f>
+        <v>0.0470420405155409</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <f aca="false">2*(P53-F53)*(1-P53)*P53*D53</f>
+        <v>0.0168007287555503</v>
+      </c>
+      <c r="X53" s="0" t="n">
+        <f aca="false">2*(P53-F53)*(1-P53)*P53</f>
+        <v>0.0112004858370336</v>
+      </c>
+      <c r="Z53" s="0" t="n">
+        <f aca="false">H53-T53*$M$2</f>
+        <v>-0.209377676373545</v>
+      </c>
+      <c r="AA53" s="0" t="n">
+        <f aca="false">I53-U53*$M$2</f>
+        <v>-0.0772791008516151</v>
+      </c>
+      <c r="AB53" s="0" t="n">
+        <f aca="false">J53-V53*$M$2</f>
+        <v>-0.673090123902832</v>
+      </c>
+      <c r="AC53" s="0" t="n">
+        <f aca="false">K53-W53*$M$2</f>
+        <v>0.631774615742388</v>
+      </c>
+      <c r="AD53" s="0" t="n">
+        <f aca="false">L53-X53*$M$2</f>
+        <v>0.803248722975404</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">Z53</f>
+        <v>-0.209377676373545</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <f aca="false">AA53</f>
+        <v>-0.0772791008516151</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">AB53</f>
+        <v>-0.673090123902832</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">AC53</f>
+        <v>0.631774615742388</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">AD53</f>
+        <v>0.803248722975404</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">A54*H54+B54*I54+C54*J54+D54*K54+L54</f>
+        <v>-2.68361723700836</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O54))</f>
+        <v>0.0639470147563239</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">(P54-F54)^2</f>
+        <v>0.0040892206962455</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">IF(P54&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <f aca="false">2*(P54-F54)*(1-P54)*P54*A54</f>
+        <v>0.0459327268804899</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <f aca="false">2*(P54-F54)*(1-P54)*P54*B54</f>
+        <v>0.0168419998561796</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <f aca="false">2*(P54-F54)*(1-P54)*P54*C54</f>
+        <v>0.0306218179203266</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <f aca="false">2*(P54-F54)*(1-P54)*P54*D54</f>
+        <v>0.00765545448008166</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <f aca="false">2*(P54-F54)*(1-P54)*P54</f>
+        <v>0.00765545448008166</v>
+      </c>
+      <c r="Z54" s="0" t="n">
+        <f aca="false">H54-T54*$M$2</f>
+        <v>-0.213970949061594</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <f aca="false">I54-U54*$M$2</f>
+        <v>-0.0789633008372331</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <f aca="false">J54-V54*$M$2</f>
+        <v>-0.676152305694865</v>
+      </c>
+      <c r="AC54" s="0" t="n">
+        <f aca="false">K54-W54*$M$2</f>
+        <v>0.631009070294379</v>
+      </c>
+      <c r="AD54" s="0" t="n">
+        <f aca="false">L54-X54*$M$2</f>
+        <v>0.802483177527396</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">Z54</f>
+        <v>-0.213970949061594</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <f aca="false">AA54</f>
+        <v>-0.0789633008372331</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">AB54</f>
+        <v>-0.676152305694865</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">AC54</f>
+        <v>0.631009070294379</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">AD54</f>
+        <v>0.802483177527396</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">A55*H55+B55*I55+C55*J55+D55*K55+L55</f>
+        <v>-3.02623632253004</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O55))</f>
+        <v>0.0462545787593735</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">(P55-F55)^2</f>
+        <v>0.00213948605620708</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">IF(P55&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <f aca="false">2*(P55-F55)*(1-P55)*P55*A55</f>
+        <v>0.0248944053649712</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <f aca="false">2*(P55-F55)*(1-P55)*P55*B55</f>
+        <v>0.0118350451735109</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <f aca="false">2*(P55-F55)*(1-P55)*P55*C55</f>
+        <v>0.0191809352812073</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <f aca="false">2*(P55-F55)*(1-P55)*P55*D55</f>
+        <v>0.00571347008376388</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <f aca="false">2*(P55-F55)*(1-P55)*P55</f>
+        <v>0.00408105005983135</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <f aca="false">H55-T55*$M$2</f>
+        <v>-0.216460389598091</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <f aca="false">I55-U55*$M$2</f>
+        <v>-0.0801468053545842</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <f aca="false">J55-V55*$M$2</f>
+        <v>-0.678070399222986</v>
+      </c>
+      <c r="AC55" s="0" t="n">
+        <f aca="false">K55-W55*$M$2</f>
+        <v>0.630437723286003</v>
+      </c>
+      <c r="AD55" s="0" t="n">
+        <f aca="false">L55-X55*$M$2</f>
+        <v>0.802075072521413</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">Z55</f>
+        <v>-0.216460389598091</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">AA55</f>
+        <v>-0.0801468053545842</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">AB55</f>
+        <v>-0.678070399222986</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">AC55</f>
+        <v>0.630437723286003</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">AD55</f>
+        <v>0.802075072521413</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false">A56*H56+B56*I56+C56*J56+D56*K56+L56</f>
+        <v>-2.26401324168714</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O56))</f>
+        <v>0.0941475465812742</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">(P56-F56)^2</f>
+        <v>0.0088637605272732</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">IF(P56&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <f aca="false">2*(P56-F56)*(1-P56)*P56*A56</f>
+        <v>0.0899277032656407</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <f aca="false">2*(P56-F56)*(1-P56)*P56*B56</f>
+        <v>0.0465697034768496</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <f aca="false">2*(P56-F56)*(1-P56)*P56*C56</f>
+        <v>0.0578106663850547</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <f aca="false">2*(P56-F56)*(1-P56)*P56*D56</f>
+        <v>0.0208760739723809</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <f aca="false">2*(P56-F56)*(1-P56)*P56</f>
+        <v>0.016058518440293</v>
+      </c>
+      <c r="Z56" s="0" t="n">
+        <f aca="false">H56-T56*$M$2</f>
+        <v>-0.225453159924655</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <f aca="false">I56-U56*$M$2</f>
+        <v>-0.0848037757022691</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <f aca="false">J56-V56*$M$2</f>
+        <v>-0.683851465861491</v>
+      </c>
+      <c r="AC56" s="0" t="n">
+        <f aca="false">K56-W56*$M$2</f>
+        <v>0.628350115888765</v>
+      </c>
+      <c r="AD56" s="0" t="n">
+        <f aca="false">L56-X56*$M$2</f>
+        <v>0.800469220677384</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">Z56</f>
+        <v>-0.225453159924655</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <f aca="false">AA56</f>
+        <v>-0.0848037757022691</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">AB56</f>
+        <v>-0.683851465861491</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">AC56</f>
+        <v>0.628350115888765</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">AD56</f>
+        <v>0.800469220677384</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false">A57*H57+B57*I57+C57*J57+D57*K57+L57</f>
+        <v>-3.10221494304113</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O57))</f>
+        <v>0.0430159831159807</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">(P57-F57)^2</f>
+        <v>0.00185037480343434</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">IF(P57&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <f aca="false">2*(P57-F57)*(1-P57)*P57*A57</f>
+        <v>0.0237284401025631</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <f aca="false">2*(P57-F57)*(1-P57)*P57*B57</f>
+        <v>0.0109788304952157</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <f aca="false">2*(P57-F57)*(1-P57)*P57*C57</f>
+        <v>0.0155828561867578</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <f aca="false">2*(P57-F57)*(1-P57)*P57*D57</f>
+        <v>0.0049581815139684</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <f aca="false">2*(P57-F57)*(1-P57)*P57</f>
+        <v>0.00354155822426314</v>
+      </c>
+      <c r="Z57" s="0" t="n">
+        <f aca="false">H57-T57*$M$2</f>
+        <v>-0.227826003934911</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <f aca="false">I57-U57*$M$2</f>
+        <v>-0.0859016587517907</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <f aca="false">J57-V57*$M$2</f>
+        <v>-0.685409751480167</v>
+      </c>
+      <c r="AC57" s="0" t="n">
+        <f aca="false">K57-W57*$M$2</f>
+        <v>0.627854297737368</v>
+      </c>
+      <c r="AD57" s="0" t="n">
+        <f aca="false">L57-X57*$M$2</f>
+        <v>0.800115064854957</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">Z57</f>
+        <v>-0.227826003934911</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <f aca="false">AA57</f>
+        <v>-0.0859016587517907</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">AB57</f>
+        <v>-0.685409751480167</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">AC57</f>
+        <v>0.627854297737368</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">AD57</f>
+        <v>0.800115064854957</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="false">A58*H58+B58*I58+C58*J58+D58*K58+L58</f>
+        <v>-2.87597796849062</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O58))</f>
+        <v>0.0533539136964045</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">(P58-F58)^2</f>
+        <v>0.00284664010672338</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <f aca="false">IF(P58&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <f aca="false">2*(P58-F58)*(1-P58)*P58*A58</f>
+        <v>0.0301813200208188</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <f aca="false">2*(P58-F58)*(1-P58)*P58*B58</f>
+        <v>0.0161685642968672</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <f aca="false">2*(P58-F58)*(1-P58)*P58*C58</f>
+        <v>0.0242528464453008</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <f aca="false">2*(P58-F58)*(1-P58)*P58*D58</f>
+        <v>0.00808428214843362</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <f aca="false">2*(P58-F58)*(1-P58)*P58</f>
+        <v>0.00538952143228908</v>
+      </c>
+      <c r="Z58" s="0" t="n">
+        <f aca="false">H58-T58*$M$2</f>
+        <v>-0.230844135936993</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <f aca="false">I58-U58*$M$2</f>
+        <v>-0.0875185151814774</v>
+      </c>
+      <c r="AB58" s="0" t="n">
+        <f aca="false">J58-V58*$M$2</f>
+        <v>-0.687835036124697</v>
+      </c>
+      <c r="AC58" s="0" t="n">
+        <f aca="false">K58-W58*$M$2</f>
+        <v>0.627045869522525</v>
+      </c>
+      <c r="AD58" s="0" t="n">
+        <f aca="false">L58-X58*$M$2</f>
+        <v>0.799576112711728</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">Z58</f>
+        <v>-0.230844135936993</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">AA58</f>
+        <v>-0.0875185151814774</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">AB58</f>
+        <v>-0.687835036124697</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">AC58</f>
+        <v>0.627045869522525</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">AD58</f>
+        <v>0.799576112711728</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="false">A59*H59+B59*I59+C59*J59+D59*K59+L59</f>
+        <v>-2.96869764530155</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O59))</f>
+        <v>0.0488602116389211</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <f aca="false">(P59-F59)^2</f>
+        <v>0.00238732028140016</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <f aca="false">IF(P59&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <f aca="false">2*(P59-F59)*(1-P59)*P59*A59</f>
+        <v>0.0263398335635323</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <f aca="false">2*(P59-F59)*(1-P59)*P59*B59</f>
+        <v>0.0122616466588857</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <f aca="false">2*(P59-F59)*(1-P59)*P59*C59</f>
+        <v>0.0186195375190487</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <f aca="false">2*(P59-F59)*(1-P59)*P59*D59</f>
+        <v>0.00454135061440212</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <f aca="false">2*(P59-F59)*(1-P59)*P59</f>
+        <v>0.00454135061440212</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <f aca="false">H59-T59*$M$2</f>
+        <v>-0.233478119293346</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <f aca="false">I59-U59*$M$2</f>
+        <v>-0.088744679847366</v>
+      </c>
+      <c r="AB59" s="0" t="n">
+        <f aca="false">J59-V59*$M$2</f>
+        <v>-0.689696989876602</v>
+      </c>
+      <c r="AC59" s="0" t="n">
+        <f aca="false">K59-W59*$M$2</f>
+        <v>0.626591734461084</v>
+      </c>
+      <c r="AD59" s="0" t="n">
+        <f aca="false">L59-X59*$M$2</f>
+        <v>0.799121977650288</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <f aca="false">Z59</f>
+        <v>-0.233478119293346</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <f aca="false">AA59</f>
+        <v>-0.088744679847366</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <f aca="false">AB59</f>
+        <v>-0.689696989876602</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">AC59</f>
+        <v>0.626591734461084</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">AD59</f>
+        <v>0.799121977650288</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <f aca="false">A60*H60+B60*I60+C60*J60+D60*K60+L60</f>
+        <v>-3.00742951038575</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O60))</f>
+        <v>0.0470913590253822</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <f aca="false">(P60-F60)^2</f>
+        <v>0.00221759609485744</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <f aca="false">IF(P60&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <f aca="false">2*(P60-F60)*(1-P60)*P60*A60</f>
+        <v>0.0262032643641672</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <f aca="false">2*(P60-F60)*(1-P60)*P60*B60</f>
+        <v>0.00929793251631739</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <f aca="false">2*(P60-F60)*(1-P60)*P60*C60</f>
+        <v>0.019018498328831</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <f aca="false">2*(P60-F60)*(1-P60)*P60*D60</f>
+        <v>0.00633949944294367</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <f aca="false">2*(P60-F60)*(1-P60)*P60</f>
+        <v>0.00422633296196245</v>
+      </c>
+      <c r="Z60" s="0" t="n">
+        <f aca="false">H60-T60*$M$2</f>
+        <v>-0.236098445729763</v>
+      </c>
+      <c r="AA60" s="0" t="n">
+        <f aca="false">I60-U60*$M$2</f>
+        <v>-0.0896744730989977</v>
+      </c>
+      <c r="AB60" s="0" t="n">
+        <f aca="false">J60-V60*$M$2</f>
+        <v>-0.691598839709485</v>
+      </c>
+      <c r="AC60" s="0" t="n">
+        <f aca="false">K60-W60*$M$2</f>
+        <v>0.62595778451679</v>
+      </c>
+      <c r="AD60" s="0" t="n">
+        <f aca="false">L60-X60*$M$2</f>
+        <v>0.798699344354092</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <f aca="false">Z60</f>
+        <v>-0.236098445729763</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <f aca="false">AA60</f>
+        <v>-0.0896744730989977</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <f aca="false">AB60</f>
+        <v>-0.691598839709485</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">AC60</f>
+        <v>0.62595778451679</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">AD60</f>
+        <v>0.798699344354092</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <f aca="false">A61*H61+B61*I61+C61*J61+D61*K61+L61</f>
+        <v>-2.7563200463786</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O61))</f>
+        <v>0.0597307084883209</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <f aca="false">(P61-F61)^2</f>
+        <v>0.00356775753651677</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <f aca="false">IF(P61&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <f aca="false">2*(P61-F61)*(1-P61)*P61*A61</f>
+        <v>0.037572111932836</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <f aca="false">2*(P61-F61)*(1-P61)*P61*B61</f>
+        <v>0.0167732642557304</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <f aca="false">2*(P61-F61)*(1-P61)*P61*C61</f>
+        <v>0.0261662922389394</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <f aca="false">2*(P61-F61)*(1-P61)*P61*D61</f>
+        <v>0.00738023627252136</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <f aca="false">2*(P61-F61)*(1-P61)*P61</f>
+        <v>0.00670930570229215</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <f aca="false">H61-T61*$M$2</f>
+        <v>-0.239855656923047</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <f aca="false">I61-U61*$M$2</f>
+        <v>-0.0913517995245708</v>
+      </c>
+      <c r="AB61" s="0" t="n">
+        <f aca="false">J61-V61*$M$2</f>
+        <v>-0.694215468933379</v>
+      </c>
+      <c r="AC61" s="0" t="n">
+        <f aca="false">K61-W61*$M$2</f>
+        <v>0.625219760889538</v>
+      </c>
+      <c r="AD61" s="0" t="n">
+        <f aca="false">L61-X61*$M$2</f>
+        <v>0.798028413783863</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <f aca="false">Z61</f>
+        <v>-0.239855656923047</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <f aca="false">AA61</f>
+        <v>-0.0913517995245708</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <f aca="false">AB61</f>
+        <v>-0.694215468933379</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">AC61</f>
+        <v>0.625219760889538</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">AD61</f>
+        <v>0.798028413783863</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <f aca="false">A62*H62+B62*I62+C62*J62+D62*K62+L62</f>
+        <v>-3.11628440181979</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O62))</f>
+        <v>0.0424405147635204</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <f aca="false">(P62-F62)^2</f>
+        <v>0.00180119729339259</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <f aca="false">IF(P62&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <f aca="false">2*(P62-F62)*(1-P62)*P62*A62</f>
+        <v>0.0203520919262301</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <f aca="false">2*(P62-F62)*(1-P62)*P62*B62</f>
+        <v>0.0110384227396502</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <f aca="false">2*(P62-F62)*(1-P62)*P62*C62</f>
+        <v>0.0165576341094754</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <f aca="false">2*(P62-F62)*(1-P62)*P62*D62</f>
+        <v>0.00620911279105326</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <f aca="false">2*(P62-F62)*(1-P62)*P62</f>
+        <v>0.0034495071061407</v>
+      </c>
+      <c r="Z62" s="0" t="n">
+        <f aca="false">H62-T62*$M$2</f>
+        <v>-0.24189086611567</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <f aca="false">I62-U62*$M$2</f>
+        <v>-0.0924556417985358</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <f aca="false">J62-V62*$M$2</f>
+        <v>-0.695871232344327</v>
+      </c>
+      <c r="AC62" s="0" t="n">
+        <f aca="false">K62-W62*$M$2</f>
+        <v>0.624598849610433</v>
+      </c>
+      <c r="AD62" s="0" t="n">
+        <f aca="false">L62-X62*$M$2</f>
+        <v>0.797683463073249</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <f aca="false">Z62</f>
+        <v>-0.24189086611567</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <f aca="false">AA62</f>
+        <v>-0.0924556417985358</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <f aca="false">AB62</f>
+        <v>-0.695871232344327</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">AC62</f>
+        <v>0.624598849610433</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">AD62</f>
+        <v>0.797683463073249</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <f aca="false">A63*H63+B63*I63+C63*J63+D63*K63+L63</f>
+        <v>-2.90823304215198</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O63))</f>
+        <v>0.0517480718145755</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <f aca="false">(P63-F63)^2</f>
+        <v>0.00267786293652646</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <f aca="false">IF(P63&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <f aca="false">2*(P63-F63)*(1-P63)*P63*A63</f>
+        <v>0.0309793220543255</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <f aca="false">2*(P63-F63)*(1-P63)*P63*B63</f>
+        <v>0.014220016680674</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <f aca="false">2*(P63-F63)*(1-P63)*P63*C63</f>
+        <v>0.02031430954382</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <f aca="false">2*(P63-F63)*(1-P63)*P63*D63</f>
+        <v>0.0066021506017415</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <f aca="false">2*(P63-F63)*(1-P63)*P63</f>
+        <v>0.005078577385955</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <f aca="false">H63-T63*$M$2</f>
+        <v>-0.244988798321102</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <f aca="false">I63-U63*$M$2</f>
+        <v>-0.0938776434666032</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <f aca="false">J63-V63*$M$2</f>
+        <v>-0.697902663298709</v>
+      </c>
+      <c r="AC63" s="0" t="n">
+        <f aca="false">K63-W63*$M$2</f>
+        <v>0.623938634550258</v>
+      </c>
+      <c r="AD63" s="0" t="n">
+        <f aca="false">L63-X63*$M$2</f>
+        <v>0.797175605334653</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <f aca="false">Z63</f>
+        <v>-0.244988798321102</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <f aca="false">AA63</f>
+        <v>-0.0938776434666032</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <f aca="false">AB63</f>
+        <v>-0.697902663298709</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">AC63</f>
+        <v>0.623938634550258</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">AD63</f>
+        <v>0.797175605334653</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <f aca="false">A64*H64+B64*I64+C64*J64+D64*K64+L64</f>
+        <v>-3.46476303109308</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O64))</f>
+        <v>0.030331630968347</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <f aca="false">(P64-F64)^2</f>
+        <v>0.00092000783719999</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <f aca="false">IF(P64&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <f aca="false">2*(P64-F64)*(1-P64)*P64*A64</f>
+        <v>0.0112404914873251</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <f aca="false">2*(P64-F64)*(1-P64)*P64*B64</f>
+        <v>0.00446051249497026</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <f aca="false">2*(P64-F64)*(1-P64)*P64*C64</f>
+        <v>0.00874260449014171</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <f aca="false">2*(P64-F64)*(1-P64)*P64*D64</f>
+        <v>0.00267630749698216</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <f aca="false">2*(P64-F64)*(1-P64)*P64</f>
+        <v>0.00178420499798811</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <f aca="false">H64-T64*$M$2</f>
+        <v>-0.246112847469835</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <f aca="false">I64-U64*$M$2</f>
+        <v>-0.0943236947161002</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <f aca="false">J64-V64*$M$2</f>
+        <v>-0.698776923747723</v>
+      </c>
+      <c r="AC64" s="0" t="n">
+        <f aca="false">K64-W64*$M$2</f>
+        <v>0.62367100380056</v>
+      </c>
+      <c r="AD64" s="0" t="n">
+        <f aca="false">L64-X64*$M$2</f>
+        <v>0.796997184834854</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <f aca="false">Z64</f>
+        <v>-0.246112847469835</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <f aca="false">AA64</f>
+        <v>-0.0943236947161002</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <f aca="false">AB64</f>
+        <v>-0.698776923747723</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">AC64</f>
+        <v>0.62367100380056</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">AD64</f>
+        <v>0.796997184834854</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <f aca="false">A65*H65+B65*I65+C65*J65+D65*K65+L65</f>
+        <v>-3.50424386698984</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O65))</f>
+        <v>0.0291917208064091</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <f aca="false">(P65-F65)^2</f>
+        <v>0.000852156563639341</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <f aca="false">IF(P65&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <f aca="false">2*(P65-F65)*(1-P65)*P65*A65</f>
+        <v>0.0100928238952328</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <f aca="false">2*(P65-F65)*(1-P65)*P65*B65</f>
+        <v>0.0046327716240413</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <f aca="false">2*(P65-F65)*(1-P65)*P65*C65</f>
+        <v>0.00777643808321218</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <f aca="false">2*(P65-F65)*(1-P65)*P65*D65</f>
+        <v>0.00198547355316056</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <f aca="false">2*(P65-F65)*(1-P65)*P65</f>
+        <v>0.00165456129430046</v>
+      </c>
+      <c r="Z65" s="0" t="n">
+        <f aca="false">H65-T65*$M$2</f>
+        <v>-0.247122129859358</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <f aca="false">I65-U65*$M$2</f>
+        <v>-0.0947869718785043</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <f aca="false">J65-V65*$M$2</f>
+        <v>-0.699554567556044</v>
+      </c>
+      <c r="AC65" s="0" t="n">
+        <f aca="false">K65-W65*$M$2</f>
+        <v>0.623472456445244</v>
+      </c>
+      <c r="AD65" s="0" t="n">
+        <f aca="false">L65-X65*$M$2</f>
+        <v>0.796831728705424</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <f aca="false">Z65</f>
+        <v>-0.247122129859358</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <f aca="false">AA65</f>
+        <v>-0.0947869718785043</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">AB65</f>
+        <v>-0.699554567556044</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">AC65</f>
+        <v>0.623472456445244</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">AD65</f>
+        <v>0.796831728705424</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <f aca="false">A66*H66+B66*I66+C66*J66+D66*K66+L66</f>
+        <v>-3.2572025679543</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O66))</f>
+        <v>0.0370689339423451</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <f aca="false">(P66-F66)^2</f>
+        <v>0.00137410586362194</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <f aca="false">IF(P66&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <f aca="false">2*(P66-F66)*(1-P66)*P66*A66</f>
+        <v>0.0169365660689095</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <f aca="false">2*(P66-F66)*(1-P66)*P66*B66</f>
+        <v>0.00767438149997461</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <f aca="false">2*(P66-F66)*(1-P66)*P66*C66</f>
+        <v>0.0113792553275486</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <f aca="false">2*(P66-F66)*(1-P66)*P66*D66</f>
+        <v>0.00344023998274724</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <f aca="false">2*(P66-F66)*(1-P66)*P66</f>
+        <v>0.00264633844826711</v>
+      </c>
+      <c r="Z66" s="0" t="n">
+        <f aca="false">H66-T66*$M$2</f>
+        <v>-0.248815786466249</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <f aca="false">I66-U66*$M$2</f>
+        <v>-0.0955544100285018</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <f aca="false">J66-V66*$M$2</f>
+        <v>-0.700692493088799</v>
+      </c>
+      <c r="AC66" s="0" t="n">
+        <f aca="false">K66-W66*$M$2</f>
+        <v>0.623128432446969</v>
+      </c>
+      <c r="AD66" s="0" t="n">
+        <f aca="false">L66-X66*$M$2</f>
+        <v>0.796567094860598</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <f aca="false">Z66</f>
+        <v>-0.248815786466249</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <f aca="false">AA66</f>
+        <v>-0.0955544100285018</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <f aca="false">AB66</f>
+        <v>-0.700692493088799</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <f aca="false">AC66</f>
+        <v>0.623128432446969</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">AD66</f>
+        <v>0.796567094860598</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <f aca="false">A67*H67+B67*I67+C67*J67+D67*K67+L67</f>
+        <v>-3.34294749006711</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O67))</f>
+        <v>0.0341268683379751</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <f aca="false">(P67-F67)^2</f>
+        <v>0.00116464314255749</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <f aca="false">IF(P67&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <f aca="false">2*(P67-F67)*(1-P67)*P67*A67</f>
+        <v>0.0148486472556933</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <f aca="false">2*(P67-F67)*(1-P67)*P67*B67</f>
+        <v>0.00674938511622423</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <f aca="false">2*(P67-F67)*(1-P67)*P67*C67</f>
+        <v>0.00989909817046221</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <f aca="false">2*(P67-F67)*(1-P67)*P67*D67</f>
+        <v>0.00314971305423797</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <f aca="false">2*(P67-F67)*(1-P67)*P67</f>
+        <v>0.00224979503874141</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <f aca="false">H67-T67*$M$2</f>
+        <v>-0.250300651191818</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <f aca="false">I67-U67*$M$2</f>
+        <v>-0.0962293485401242</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <f aca="false">J67-V67*$M$2</f>
+        <v>-0.701682402905845</v>
+      </c>
+      <c r="AC67" s="0" t="n">
+        <f aca="false">K67-W67*$M$2</f>
+        <v>0.622813461141546</v>
+      </c>
+      <c r="AD67" s="0" t="n">
+        <f aca="false">L67-X67*$M$2</f>
+        <v>0.796342115356724</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <f aca="false">Z67</f>
+        <v>-0.250300651191818</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <f aca="false">AA67</f>
+        <v>-0.0962293485401242</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <f aca="false">AB67</f>
+        <v>-0.701682402905845</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">AC67</f>
+        <v>0.622813461141546</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <f aca="false">AD67</f>
+        <v>0.796342115356724</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <f aca="false">A68*H68+B68*I68+C68*J68+D68*K68+L68</f>
+        <v>-3.67128117700988</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O68))</f>
+        <v>0.0248125247955812</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <f aca="false">(P68-F68)^2</f>
+        <v>0.000615661386731331</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <f aca="false">IF(P68&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <f aca="false">2*(P68-F68)*(1-P68)*P68*A68</f>
+        <v>0.00816523971698034</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <f aca="false">2*(P68-F68)*(1-P68)*P68*B68</f>
+        <v>0.00336215753052132</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <f aca="false">2*(P68-F68)*(1-P68)*P68*C68</f>
+        <v>0.00576369862375083</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <f aca="false">2*(P68-F68)*(1-P68)*P68*D68</f>
+        <v>0.00168107876526066</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <f aca="false">2*(P68-F68)*(1-P68)*P68</f>
+        <v>0.00120077054661476</v>
+      </c>
+      <c r="Z68" s="0" t="n">
+        <f aca="false">H68-T68*$M$2</f>
+        <v>-0.251117175163516</v>
+      </c>
+      <c r="AA68" s="0" t="n">
+        <f aca="false">I68-U68*$M$2</f>
+        <v>-0.0965655642931764</v>
+      </c>
+      <c r="AB68" s="0" t="n">
+        <f aca="false">J68-V68*$M$2</f>
+        <v>-0.70225877276822</v>
+      </c>
+      <c r="AC68" s="0" t="n">
+        <f aca="false">K68-W68*$M$2</f>
+        <v>0.622645353265019</v>
+      </c>
+      <c r="AD68" s="0" t="n">
+        <f aca="false">L68-X68*$M$2</f>
+        <v>0.796222038302062</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <f aca="false">Z68</f>
+        <v>-0.251117175163516</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <f aca="false">AA68</f>
+        <v>-0.0965655642931764</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <f aca="false">AB68</f>
+        <v>-0.70225877276822</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <f aca="false">AC68</f>
+        <v>0.622645353265019</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <f aca="false">AD68</f>
+        <v>0.796222038302062</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <f aca="false">A69*H69+B69*I69+C69*J69+D69*K69+L69</f>
+        <v>-3.6287564914636</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O69))</f>
+        <v>0.0258625486130422</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <f aca="false">(P69-F69)^2</f>
+        <v>0.000668871420761972</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <f aca="false">IF(P69&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <f aca="false">2*(P69-F69)*(1-P69)*P69*A69</f>
+        <v>0.00873107419509699</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <f aca="false">2*(P69-F69)*(1-P69)*P69*B69</f>
+        <v>0.00390943620675985</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <f aca="false">2*(P69-F69)*(1-P69)*P69*C69</f>
+        <v>0.00651572701126641</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <f aca="false">2*(P69-F69)*(1-P69)*P69*D69</f>
+        <v>0.00221534718383058</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <f aca="false">2*(P69-F69)*(1-P69)*P69</f>
+        <v>0.00130314540225328</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <f aca="false">H69-T69*$M$2</f>
+        <v>-0.251990282583026</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <f aca="false">I69-U69*$M$2</f>
+        <v>-0.0969565079138524</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <f aca="false">J69-V69*$M$2</f>
+        <v>-0.702910345469347</v>
+      </c>
+      <c r="AC69" s="0" t="n">
+        <f aca="false">K69-W69*$M$2</f>
+        <v>0.622423818546636</v>
+      </c>
+      <c r="AD69" s="0" t="n">
+        <f aca="false">L69-X69*$M$2</f>
+        <v>0.796091723761837</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <f aca="false">Z69</f>
+        <v>-0.251990282583026</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <f aca="false">AA69</f>
+        <v>-0.0969565079138524</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <f aca="false">AB69</f>
+        <v>-0.702910345469347</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <f aca="false">AC69</f>
+        <v>0.622423818546636</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <f aca="false">AD69</f>
+        <v>0.796091723761837</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <f aca="false">A70*H70+B70*I70+C70*J70+D70*K70+L70</f>
+        <v>-3.2264846714786</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O70))</f>
+        <v>0.038181132281581</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <f aca="false">(P70-F70)^2</f>
+        <v>0.00145779886230359</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <f aca="false">IF(P70&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <f aca="false">2*(P70-F70)*(1-P70)*P70*A70</f>
+        <v>0.0168256614132245</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <f aca="false">2*(P70-F70)*(1-P70)*P70*B70</f>
+        <v>0.00813240301639183</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <f aca="false">2*(P70-F70)*(1-P70)*P70*C70</f>
+        <v>0.0126192460599183</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <f aca="false">2*(P70-F70)*(1-P70)*P70*D70</f>
+        <v>0.00420641535330612</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <f aca="false">2*(P70-F70)*(1-P70)*P70</f>
+        <v>0.00280427690220408</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <f aca="false">H70-T70*$M$2</f>
+        <v>-0.253672848724349</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <f aca="false">I70-U70*$M$2</f>
+        <v>-0.0977697482154916</v>
+      </c>
+      <c r="AB70" s="0" t="n">
+        <f aca="false">J70-V70*$M$2</f>
+        <v>-0.704172270075339</v>
+      </c>
+      <c r="AC70" s="0" t="n">
+        <f aca="false">K70-W70*$M$2</f>
+        <v>0.622003177011306</v>
+      </c>
+      <c r="AD70" s="0" t="n">
+        <f aca="false">L70-X70*$M$2</f>
+        <v>0.795811296071616</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <f aca="false">Z70</f>
+        <v>-0.253672848724349</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <f aca="false">AA70</f>
+        <v>-0.0977697482154916</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <f aca="false">AB70</f>
+        <v>-0.704172270075339</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <f aca="false">AC70</f>
+        <v>0.622003177011306</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <f aca="false">AD70</f>
+        <v>0.795811296071616</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <f aca="false">A71*H71+B71*I71+C71*J71+D71*K71+L71</f>
+        <v>-2.74692505526983</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O71))</f>
+        <v>0.0602605465991387</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <f aca="false">(P71-F71)^2</f>
+        <v>0.00363133347642697</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <f aca="false">IF(P71&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <f aca="false">2*(P71-F71)*(1-P71)*P71*A71</f>
+        <v>0.0389025836332925</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <f aca="false">2*(P71-F71)*(1-P71)*P71*B71</f>
+        <v>0.0177450381485194</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <f aca="false">2*(P71-F71)*(1-P71)*P71*C71</f>
+        <v>0.0238875513537761</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <f aca="false">2*(P71-F71)*(1-P71)*P71*D71</f>
+        <v>0.00682501467250746</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <f aca="false">2*(P71-F71)*(1-P71)*P71</f>
+        <v>0.00682501467250746</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <f aca="false">H71-T71*$M$2</f>
+        <v>-0.257563107087678</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <f aca="false">I71-U71*$M$2</f>
+        <v>-0.0995442520303435</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <f aca="false">J71-V71*$M$2</f>
+        <v>-0.706561025210716</v>
+      </c>
+      <c r="AC71" s="0" t="n">
+        <f aca="false">K71-W71*$M$2</f>
+        <v>0.621320675544055</v>
+      </c>
+      <c r="AD71" s="0" t="n">
+        <f aca="false">L71-X71*$M$2</f>
+        <v>0.795128794604366</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <f aca="false">Z71</f>
+        <v>-0.257563107087678</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <f aca="false">AA71</f>
+        <v>-0.0995442520303435</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <f aca="false">AB71</f>
+        <v>-0.706561025210716</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <f aca="false">AC71</f>
+        <v>0.621320675544055</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <f aca="false">AD71</f>
+        <v>0.795128794604366</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <f aca="false">A72*H72+B72*I72+C72*J72+D72*K72+L72</f>
+        <v>-2.86185365195295</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O72))</f>
+        <v>0.054071811389606</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <f aca="false">(P72-F72)^2</f>
+        <v>0.00292376078695312</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <f aca="false">IF(P72&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <f aca="false">2*(P72-F72)*(1-P72)*P72*A72</f>
+        <v>0.0304223451964594</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <f aca="false">2*(P72-F72)*(1-P72)*P72*B72</f>
+        <v>0.0132752051766368</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <f aca="false">2*(P72-F72)*(1-P72)*P72*C72</f>
+        <v>0.0210190748630083</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <f aca="false">2*(P72-F72)*(1-P72)*P72*D72</f>
+        <v>0.00608446903929187</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <f aca="false">2*(P72-F72)*(1-P72)*P72</f>
+        <v>0.00553133549026534</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <f aca="false">H72-T72*$M$2</f>
+        <v>-0.260605341607324</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <f aca="false">I72-U72*$M$2</f>
+        <v>-0.100871772548007</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <f aca="false">J72-V72*$M$2</f>
+        <v>-0.708662932697017</v>
+      </c>
+      <c r="AC72" s="0" t="n">
+        <f aca="false">K72-W72*$M$2</f>
+        <v>0.620712228640126</v>
+      </c>
+      <c r="AD72" s="0" t="n">
+        <f aca="false">L72-X72*$M$2</f>
+        <v>0.794575661055339</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <f aca="false">Z72</f>
+        <v>-0.260605341607324</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <f aca="false">AA72</f>
+        <v>-0.100871772548007</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <f aca="false">AB72</f>
+        <v>-0.708662932697017</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <f aca="false">AC72</f>
+        <v>0.620712228640126</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <f aca="false">AD72</f>
+        <v>0.794575661055339</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <f aca="false">A73*H73+B73*I73+C73*J73+D73*K73+L73</f>
+        <v>-2.882186594239</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O73))</f>
+        <v>0.0530412011118832</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <f aca="false">(P73-F73)^2</f>
+        <v>0.00281336901539124</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <f aca="false">IF(P73&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <f aca="false">2*(P73-F73)*(1-P73)*P73*A73</f>
+        <v>0.0293055899800832</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <f aca="false">2*(P73-F73)*(1-P73)*P73*B73</f>
+        <v>0.0127878938094909</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <f aca="false">2*(P73-F73)*(1-P73)*P73*C73</f>
+        <v>0.0197146696229651</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <f aca="false">2*(P73-F73)*(1-P73)*P73*D73</f>
+        <v>0.00532828908728786</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <f aca="false">2*(P73-F73)*(1-P73)*P73</f>
+        <v>0.00532828908728786</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <f aca="false">H73-T73*$M$2</f>
+        <v>-0.263535900605332</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <f aca="false">I73-U73*$M$2</f>
+        <v>-0.102150561928956</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <f aca="false">J73-V73*$M$2</f>
+        <v>-0.710634399659314</v>
+      </c>
+      <c r="AC73" s="0" t="n">
+        <f aca="false">K73-W73*$M$2</f>
+        <v>0.620179399731397</v>
+      </c>
+      <c r="AD73" s="0" t="n">
+        <f aca="false">L73-X73*$M$2</f>
+        <v>0.79404283214661</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <f aca="false">Z73</f>
+        <v>-0.263535900605332</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <f aca="false">AA73</f>
+        <v>-0.102150561928956</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">AB73</f>
+        <v>-0.710634399659314</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <f aca="false">AC73</f>
+        <v>0.620179399731397</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <f aca="false">AD73</f>
+        <v>0.79404283214661</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <f aca="false">A74*H74+B74*I74+C74*J74+D74*K74+L74</f>
+        <v>-3.03753078756614</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O74))</f>
+        <v>0.0457588680808031</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <f aca="false">(P74-F74)^2</f>
+        <v>0.00209387400803634</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <f aca="false">IF(P74&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <f aca="false">2*(P74-F74)*(1-P74)*P74*A74</f>
+        <v>0.0231775041608875</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <f aca="false">2*(P74-F74)*(1-P74)*P74*B74</f>
+        <v>0.0107895277990338</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <f aca="false">2*(P74-F74)*(1-P74)*P74*C74</f>
+        <v>0.0155848734874933</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <f aca="false">2*(P74-F74)*(1-P74)*P74*D74</f>
+        <v>0.00479534568845948</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <f aca="false">2*(P74-F74)*(1-P74)*P74</f>
+        <v>0.00399612140704956</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <f aca="false">H74-T74*$M$2</f>
+        <v>-0.265853651021421</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <f aca="false">I74-U74*$M$2</f>
+        <v>-0.10322951470886</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <f aca="false">J74-V74*$M$2</f>
+        <v>-0.712192887008063</v>
+      </c>
+      <c r="AC74" s="0" t="n">
+        <f aca="false">K74-W74*$M$2</f>
+        <v>0.619699865162551</v>
+      </c>
+      <c r="AD74" s="0" t="n">
+        <f aca="false">L74-X74*$M$2</f>
+        <v>0.793643220005905</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <f aca="false">Z74</f>
+        <v>-0.265853651021421</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <f aca="false">AA74</f>
+        <v>-0.10322951470886</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <f aca="false">AB74</f>
+        <v>-0.712192887008063</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <f aca="false">AC74</f>
+        <v>0.619699865162551</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <f aca="false">AD74</f>
+        <v>0.793643220005905</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <f aca="false">A75*H75+B75*I75+C75*J75+D75*K75+L75</f>
+        <v>-3.72086231531758</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O75))</f>
+        <v>0.0236406662005719</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <f aca="false">(P75-F75)^2</f>
+        <v>0.000558881098406861</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <f aca="false">IF(P75&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <f aca="false">2*(P75-F75)*(1-P75)*P75*A75</f>
+        <v>0.00654802532296339</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <f aca="false">2*(P75-F75)*(1-P75)*P75*B75</f>
+        <v>0.00294661139533352</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <f aca="false">2*(P75-F75)*(1-P75)*P75*C75</f>
+        <v>0.00556582152451888</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <f aca="false">2*(P75-F75)*(1-P75)*P75*D75</f>
+        <v>0.00174614008612357</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <f aca="false">2*(P75-F75)*(1-P75)*P75</f>
+        <v>0.00109133755382723</v>
+      </c>
+      <c r="Z75" s="0" t="n">
+        <f aca="false">H75-T75*$M$2</f>
+        <v>-0.266508453553717</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <f aca="false">I75-U75*$M$2</f>
+        <v>-0.103524175848393</v>
+      </c>
+      <c r="AB75" s="0" t="n">
+        <f aca="false">J75-V75*$M$2</f>
+        <v>-0.712749469160515</v>
+      </c>
+      <c r="AC75" s="0" t="n">
+        <f aca="false">K75-W75*$M$2</f>
+        <v>0.619525251153939</v>
+      </c>
+      <c r="AD75" s="0" t="n">
+        <f aca="false">L75-X75*$M$2</f>
+        <v>0.793534086250523</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <f aca="false">Z75</f>
+        <v>-0.266508453553717</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <f aca="false">AA75</f>
+        <v>-0.103524175848393</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <f aca="false">AB75</f>
+        <v>-0.712749469160515</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <f aca="false">AC75</f>
+        <v>0.619525251153939</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">AD75</f>
+        <v>0.793534086250523</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <f aca="false">A76*H76+B76*I76+C76*J76+D76*K76+L76</f>
+        <v>-3.23426882497614</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O76))</f>
+        <v>0.0378962975989105</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <f aca="false">(P76-F76)^2</f>
+        <v>0.00143612937170519</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <f aca="false">IF(P76&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <f aca="false">2*(P76-F76)*(1-P76)*P76*A76</f>
+        <v>0.0149224181649608</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <f aca="false">2*(P76-F76)*(1-P76)*P76*B76</f>
+        <v>0.0082902323138671</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <f aca="false">2*(P76-F76)*(1-P76)*P76*C76</f>
+        <v>0.0124353484708006</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <f aca="false">2*(P76-F76)*(1-P76)*P76*D76</f>
+        <v>0.00414511615693355</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <f aca="false">2*(P76-F76)*(1-P76)*P76</f>
+        <v>0.00276341077128903</v>
+      </c>
+      <c r="Z76" s="0" t="n">
+        <f aca="false">H76-T76*$M$2</f>
+        <v>-0.268000695370213</v>
+      </c>
+      <c r="AA76" s="0" t="n">
+        <f aca="false">I76-U76*$M$2</f>
+        <v>-0.10435319907978</v>
+      </c>
+      <c r="AB76" s="0" t="n">
+        <f aca="false">J76-V76*$M$2</f>
+        <v>-0.713993004007595</v>
+      </c>
+      <c r="AC76" s="0" t="n">
+        <f aca="false">K76-W76*$M$2</f>
+        <v>0.619110739538245</v>
+      </c>
+      <c r="AD76" s="0" t="n">
+        <f aca="false">L76-X76*$M$2</f>
+        <v>0.793257745173394</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <f aca="false">Z76</f>
+        <v>-0.268000695370213</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <f aca="false">AA76</f>
+        <v>-0.10435319907978</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <f aca="false">AB76</f>
+        <v>-0.713993004007595</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <f aca="false">AC76</f>
+        <v>0.619110739538245</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <f aca="false">AD76</f>
+        <v>0.793257745173394</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <f aca="false">A77*H77+B77*I77+C77*J77+D77*K77+L77</f>
+        <v>-3.39193863869212</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O77))</f>
+        <v>0.0325483542408498</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <f aca="false">(P77-F77)^2</f>
+        <v>0.00105939536378784</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <f aca="false">IF(P77&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <f aca="false">2*(P77-F77)*(1-P77)*P77*A77</f>
+        <v>0.012298965458474</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <f aca="false">2*(P77-F77)*(1-P77)*P77*B77</f>
+        <v>0.00696941375980191</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <f aca="false">2*(P77-F77)*(1-P77)*P77*C77</f>
+        <v>0.00922422409385546</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <f aca="false">2*(P77-F77)*(1-P77)*P77*D77</f>
+        <v>0.00327972412225972</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <f aca="false">2*(P77-F77)*(1-P77)*P77</f>
+        <v>0.00204982757641232</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <f aca="false">H77-T77*$M$2</f>
+        <v>-0.269230591916061</v>
+      </c>
+      <c r="AA77" s="0" t="n">
+        <f aca="false">I77-U77*$M$2</f>
+        <v>-0.10505014045576</v>
+      </c>
+      <c r="AB77" s="0" t="n">
+        <f aca="false">J77-V77*$M$2</f>
+        <v>-0.71491542641698</v>
+      </c>
+      <c r="AC77" s="0" t="n">
+        <f aca="false">K77-W77*$M$2</f>
+        <v>0.618782767126019</v>
+      </c>
+      <c r="AD77" s="0" t="n">
+        <f aca="false">L77-X77*$M$2</f>
+        <v>0.793052762415752</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <f aca="false">Z77</f>
+        <v>-0.269230591916061</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <f aca="false">AA77</f>
+        <v>-0.10505014045576</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <f aca="false">AB77</f>
+        <v>-0.71491542641698</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <f aca="false">AC77</f>
+        <v>0.618782767126019</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <f aca="false">AD77</f>
+        <v>0.793052762415752</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <f aca="false">A78*H78+B78*I78+C78*J78+D78*K78+L78</f>
+        <v>-3.76837599230549</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O78))</f>
+        <v>0.0225684358444076</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <f aca="false">(P78-F78)^2</f>
+        <v>0.000509334296463143</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <f aca="false">IF(P78&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <f aca="false">2*(P78-F78)*(1-P78)*P78*A78</f>
+        <v>0.00667104820213878</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <f aca="false">2*(P78-F78)*(1-P78)*P78*B78</f>
+        <v>0.00308660439203436</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <f aca="false">2*(P78-F78)*(1-P78)*P78*C78</f>
+        <v>0.00467969052985854</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <f aca="false">2*(P78-F78)*(1-P78)*P78*D78</f>
+        <v>0.00149351825421017</v>
+      </c>
+      <c r="X78" s="0" t="n">
+        <f aca="false">2*(P78-F78)*(1-P78)*P78</f>
+        <v>0.000995678836140116</v>
+      </c>
+      <c r="Z78" s="0" t="n">
+        <f aca="false">H78-T78*$M$2</f>
+        <v>-0.269897696736274</v>
+      </c>
+      <c r="AA78" s="0" t="n">
+        <f aca="false">I78-U78*$M$2</f>
+        <v>-0.105358800894963</v>
+      </c>
+      <c r="AB78" s="0" t="n">
+        <f aca="false">J78-V78*$M$2</f>
+        <v>-0.715383395469966</v>
+      </c>
+      <c r="AC78" s="0" t="n">
+        <f aca="false">K78-W78*$M$2</f>
+        <v>0.618633415300598</v>
+      </c>
+      <c r="AD78" s="0" t="n">
+        <f aca="false">L78-X78*$M$2</f>
+        <v>0.792953194532138</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <f aca="false">Z78</f>
+        <v>-0.269897696736274</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <f aca="false">AA78</f>
+        <v>-0.105358800894963</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <f aca="false">AB78</f>
+        <v>-0.715383395469966</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <f aca="false">AC78</f>
+        <v>0.618633415300598</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <f aca="false">AD78</f>
+        <v>0.792953194532138</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <f aca="false">A79*H79+B79*I79+C79*J79+D79*K79+L79</f>
+        <v>-3.49319103714188</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O79))</f>
+        <v>0.0295065884794703</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <f aca="false">(P79-F79)^2</f>
+        <v>0.000870638763696807</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <f aca="false">IF(P79&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <f aca="false">2*(P79-F79)*(1-P79)*P79*A79</f>
+        <v>0.0106463597181748</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <f aca="false">2*(P79-F79)*(1-P79)*P79*B79</f>
+        <v>0.0038867662463178</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <f aca="false">2*(P79-F79)*(1-P79)*P79*C79</f>
+        <v>0.00743555281904275</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <f aca="false">2*(P79-F79)*(1-P79)*P79*D79</f>
+        <v>0.00219686787835354</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <f aca="false">2*(P79-F79)*(1-P79)*P79</f>
+        <v>0.00168989836796426</v>
+      </c>
+      <c r="Z79" s="0" t="n">
+        <f aca="false">H79-T79*$M$2</f>
+        <v>-0.270962332708092</v>
+      </c>
+      <c r="AA79" s="0" t="n">
+        <f aca="false">I79-U79*$M$2</f>
+        <v>-0.105747477519595</v>
+      </c>
+      <c r="AB79" s="0" t="n">
+        <f aca="false">J79-V79*$M$2</f>
+        <v>-0.716126950751871</v>
+      </c>
+      <c r="AC79" s="0" t="n">
+        <f aca="false">K79-W79*$M$2</f>
+        <v>0.618413728512763</v>
+      </c>
+      <c r="AD79" s="0" t="n">
+        <f aca="false">L79-X79*$M$2</f>
+        <v>0.792784204695342</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <f aca="false">Z79</f>
+        <v>-0.270962332708092</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <f aca="false">AA79</f>
+        <v>-0.105747477519595</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <f aca="false">AB79</f>
+        <v>-0.716126950751871</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <f aca="false">AC79</f>
+        <v>0.618413728512763</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <f aca="false">AD79</f>
+        <v>0.792784204695342</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <f aca="false">A80*H80+B80*I80+C80*J80+D80*K80+L80</f>
+        <v>-3.17402994204483</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O80))</f>
+        <v>0.0401548036417411</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <f aca="false">(P80-F80)^2</f>
+        <v>0.00161240825550678</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <f aca="false">IF(P80&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <f aca="false">2*(P80-F80)*(1-P80)*P80*A80</f>
+        <v>0.0173338179685058</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <f aca="false">2*(P80-F80)*(1-P80)*P80*B80</f>
+        <v>0.00928597391169951</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <f aca="false">2*(P80-F80)*(1-P80)*P80*C80</f>
+        <v>0.012690831012656</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <f aca="false">2*(P80-F80)*(1-P80)*P80*D80</f>
+        <v>0.00402392202840312</v>
+      </c>
+      <c r="X80" s="0" t="n">
+        <f aca="false">2*(P80-F80)*(1-P80)*P80</f>
+        <v>0.00309532463723317</v>
+      </c>
+      <c r="Z80" s="0" t="n">
+        <f aca="false">H80-T80*$M$2</f>
+        <v>-0.272695714504942</v>
+      </c>
+      <c r="AA80" s="0" t="n">
+        <f aca="false">I80-U80*$M$2</f>
+        <v>-0.106676074910765</v>
+      </c>
+      <c r="AB80" s="0" t="n">
+        <f aca="false">J80-V80*$M$2</f>
+        <v>-0.717396033853136</v>
+      </c>
+      <c r="AC80" s="0" t="n">
+        <f aca="false">K80-W80*$M$2</f>
+        <v>0.618011336309923</v>
+      </c>
+      <c r="AD80" s="0" t="n">
+        <f aca="false">L80-X80*$M$2</f>
+        <v>0.792474672231619</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <f aca="false">Z80</f>
+        <v>-0.272695714504942</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <f aca="false">AA80</f>
+        <v>-0.106676074910765</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <f aca="false">AB80</f>
+        <v>-0.717396033853136</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <f aca="false">AC80</f>
+        <v>0.618011336309923</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <f aca="false">AD80</f>
+        <v>0.792474672231619</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <f aca="false">A81*H81+B81*I81+C81*J81+D81*K81+L81</f>
+        <v>-3.04021134303212</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O81))</f>
+        <v>0.0456419640567775</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <f aca="false">(P81-F81)^2</f>
+        <v>0.00208318888296017</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <f aca="false">IF(P81&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <f aca="false">2*(P81-F81)*(1-P81)*P81*A81</f>
+        <v>0.0218691885592468</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <f aca="false">2*(P81-F81)*(1-P81)*P81*B81</f>
+        <v>0.0099405402542031</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <f aca="false">2*(P81-F81)*(1-P81)*P81*C81</f>
+        <v>0.015904864406725</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <f aca="false">2*(P81-F81)*(1-P81)*P81*D81</f>
+        <v>0.00516908093218561</v>
+      </c>
+      <c r="X81" s="0" t="n">
+        <f aca="false">2*(P81-F81)*(1-P81)*P81</f>
+        <v>0.00397621610168124</v>
+      </c>
+      <c r="Z81" s="0" t="n">
+        <f aca="false">H81-T81*$M$2</f>
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="AA81" s="0" t="n">
+        <f aca="false">I81-U81*$M$2</f>
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <f aca="false">J81-V81*$M$2</f>
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="AC81" s="0" t="n">
+        <f aca="false">K81-W81*$M$2</f>
+        <v>0.617494428216704</v>
+      </c>
+      <c r="AD81" s="0" t="n">
+        <f aca="false">L81-X81*$M$2</f>
+        <v>0.792077050621451</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q82" s="3" t="n">
+        <f aca="false">AVERAGE(Q2:Q81)</f>
+        <v>0.0794723823111112</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <f aca="false">A84*H84+B84*I84+C84*J84+D84*K84+L84</f>
+        <v>-1.70861571537647</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O84))</f>
+        <v>0.153343350054661</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <f aca="false">(P84-F84)^2</f>
+        <v>0.716827482896664</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <f aca="false">IF(P84&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <f aca="false">A85*H85+B85*I85+C85*J85+D85*K85+L85</f>
+        <v>-1.44197024397262</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O85))</f>
+        <v>0.191240430403568</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <f aca="false">(P85-F85)^2</f>
+        <v>0.654092041413806</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <f aca="false">IF(P85&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <f aca="false">A86*H86+B86*I86+C86*J86+D86*K86+L86</f>
+        <v>-1.57313453950077</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O86))</f>
+        <v>0.171769997359593</v>
+      </c>
+      <c r="Q86" s="0" t="n">
+        <f aca="false">(P86-F86)^2</f>
+        <v>0.685964937273728</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <f aca="false">IF(P86&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <f aca="false">A87*H87+B87*I87+C87*J87+D87*K87+L87</f>
+        <v>-1.73906334299961</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O87))</f>
+        <v>0.149431946458522</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <f aca="false">(P87-F87)^2</f>
+        <v>0.723466013705338</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <f aca="false">IF(P87&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <f aca="false">A88*H88+B88*I88+C88*J88+D88*K88+L88</f>
+        <v>-2.13804748674803</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O88))</f>
+        <v>0.105453434130885</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <f aca="false">(P88-F88)^2</f>
+        <v>0.800213558508227</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <f aca="false">IF(P88&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <f aca="false">A89*H89+B89*I89+C89*J89+D89*K89+L89</f>
+        <v>-1.67170277626559</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O89))</f>
+        <v>0.158197286588931</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <f aca="false">(P89-F89)^2</f>
+        <v>0.708631808306238</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <f aca="false">IF(P89&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <f aca="false">A90*H90+B90*I90+C90*J90+D90*K90+L90</f>
+        <v>-2.04585041630323</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O90))</f>
+        <v>0.114472345601887</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <f aca="false">(P90-F90)^2</f>
+        <v>0.784159226703824</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <f aca="false">IF(P90&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <f aca="false">A91*H91+B91*I91+C91*J91+D91*K91+L91</f>
+        <v>-1.70000971820232</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O91))</f>
+        <v>0.154463995834723</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <f aca="false">(P91-F91)^2</f>
+        <v>0.714931134339783</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <f aca="false">IF(P91&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <f aca="false">A92*H92+B92*I92+C92*J92+D92*K92+L92</f>
+        <v>-2.0181612780524</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O92))</f>
+        <v>0.117309252539719</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <f aca="false">(P92-F92)^2</f>
+        <v>0.779142955651989</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <f aca="false">IF(P92&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <f aca="false">A93*H93+B93*I93+C93*J93+D93*K93+L93</f>
+        <v>-1.82072978444029</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O93))</f>
+        <v>0.139346327657609</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <f aca="false">(P93-F93)^2</f>
+        <v>0.740724743716444</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <f aca="false">IF(P93&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <f aca="false">A94*H94+B94*I94+C94*J94+D94*K94+L94</f>
+        <v>-3.42226714353011</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O94))</f>
+        <v>0.0316067624228464</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <f aca="false">(P94-F94)^2</f>
+        <v>0.000998987430854257</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <f aca="false">IF(P94&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <f aca="false">A95*H95+B95*I95+C95*J95+D95*K95+L95</f>
+        <v>-3.65056319353653</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O95))</f>
+        <v>0.0253188011560698</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <f aca="false">(P95-F95)^2</f>
+        <v>0.000641041691980599</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <f aca="false">IF(P95&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <f aca="false">A96*H96+B96*I96+C96*J96+D96*K96+L96</f>
+        <v>-3.21713732542085</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O96))</f>
+        <v>0.038525883693555</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <f aca="false">(P96-F96)^2</f>
+        <v>0.00148424371436933</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <f aca="false">IF(P96&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <f aca="false">A97*H97+B97*I97+C97*J97+D97*K97+L97</f>
+        <v>-2.58513850148898</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O97))</f>
+        <v>0.0701010272048316</v>
+      </c>
+      <c r="Q97" s="0" t="n">
+        <f aca="false">(P97-F97)^2</f>
+        <v>0.00491415401517254</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <f aca="false">IF(P97&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <f aca="false">A98*H98+B98*I98+C98*J98+D98*K98+L98</f>
+        <v>-3.25497567287939</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O98))</f>
+        <v>0.0371485045755898</v>
+      </c>
+      <c r="Q98" s="0" t="n">
+        <f aca="false">(P98-F98)^2</f>
+        <v>0.00138001139220261</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <f aca="false">IF(P98&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <f aca="false">A99*H99+B99*I99+C99*J99+D99*K99+L99</f>
+        <v>-3.376514417718</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O99))</f>
+        <v>0.0330375644454707</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <f aca="false">(P99-F99)^2</f>
+        <v>0.00109148066448863</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <f aca="false">IF(P99&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <f aca="false">A100*H100+B100*I100+C100*J100+D100*K100+L100</f>
+        <v>-3.30399796200271</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O100))</f>
+        <v>0.0354342900414198</v>
+      </c>
+      <c r="Q100" s="0" t="n">
+        <f aca="false">(P100-F100)^2</f>
+        <v>0.00125558891073946</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <f aca="false">IF(P100&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M101" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <f aca="false">A101*H101+B101*I101+C101*J101+D101*K101+L101</f>
+        <v>-3.51333793071253</v>
+      </c>
+      <c r="P101" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O101))</f>
+        <v>0.0289350995114988</v>
+      </c>
+      <c r="Q101" s="0" t="n">
+        <f aca="false">(P101-F101)^2</f>
+        <v>0.000837239983740336</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <f aca="false">IF(P101&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M102" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <f aca="false">A102*H102+B102*I102+C102*J102+D102*K102+L102</f>
+        <v>-2.35671539170249</v>
+      </c>
+      <c r="P102" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O102))</f>
+        <v>0.0865334754250075</v>
+      </c>
+      <c r="Q102" s="0" t="n">
+        <f aca="false">(P102-F102)^2</f>
+        <v>0.00748804236913037</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <f aca="false">IF(P102&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>-0.274882633360867</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>-0.107670128936185</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>-0.718986520293809</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>0.617494428216704</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>0.792077050621451</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <f aca="false">A103*H103+B103*I103+C103*J103+D103*K103+L103</f>
+        <v>-3.22133229707971</v>
+      </c>
+      <c r="P103" s="0" t="n">
+        <f aca="false">1/(1+EXP(-O103))</f>
+        <v>0.0383707955217479</v>
+      </c>
+      <c r="Q103" s="0" t="n">
+        <f aca="false">(P103-F103)^2</f>
+        <v>0.00147231794897179</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <f aca="false">IF(P103&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q104" s="3" t="n">
+        <f aca="false">AVERAGE(Q84:Q103)</f>
+        <v>0.366485850531885</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Biasa"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Biasa"&amp;12Halaman &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>